--- a/FPH-LinearxNLinear.xlsx
+++ b/FPH-LinearxNLinear.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FPHxFPHLMARIMBONDO  " sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FPHxFPHLPROMISSAO   " sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,10 +460,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C2" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -477,16 +477,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C3" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D3" t="n">
-        <v>60.02020202020202</v>
+        <v>25.41414141414142</v>
       </c>
       <c r="E3" t="n">
-        <v>60.02020202020202</v>
+        <v>25.41414141414142</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +494,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C4" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D4" t="n">
-        <v>120.040404040404</v>
+        <v>50.82828282828283</v>
       </c>
       <c r="E4" t="n">
-        <v>120.040404040404</v>
+        <v>50.82828282828283</v>
       </c>
     </row>
     <row r="5">
@@ -511,16 +511,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C5" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D5" t="n">
-        <v>180.0606060606061</v>
+        <v>76.24242424242425</v>
       </c>
       <c r="E5" t="n">
-        <v>180.0606060606061</v>
+        <v>76.24242424242425</v>
       </c>
     </row>
     <row r="6">
@@ -528,16 +528,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C6" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D6" t="n">
-        <v>240.0808080808081</v>
+        <v>101.6565656565657</v>
       </c>
       <c r="E6" t="n">
-        <v>240.0808080808081</v>
+        <v>101.6565656565657</v>
       </c>
     </row>
     <row r="7">
@@ -545,16 +545,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C7" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D7" t="n">
-        <v>300.1010101010101</v>
+        <v>127.0707070707071</v>
       </c>
       <c r="E7" t="n">
-        <v>300.1010101010101</v>
+        <v>127.0707070707071</v>
       </c>
     </row>
     <row r="8">
@@ -562,16 +562,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C8" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D8" t="n">
-        <v>360.1212121212121</v>
+        <v>152.4848484848485</v>
       </c>
       <c r="E8" t="n">
-        <v>360.1212121212121</v>
+        <v>152.4848484848485</v>
       </c>
     </row>
     <row r="9">
@@ -579,16 +579,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C9" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D9" t="n">
-        <v>420.1414141414141</v>
+        <v>177.8989898989899</v>
       </c>
       <c r="E9" t="n">
-        <v>420.1414141414141</v>
+        <v>177.8989898989899</v>
       </c>
     </row>
     <row r="10">
@@ -596,16 +596,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C10" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D10" t="n">
-        <v>480.1616161616162</v>
+        <v>203.3131313131313</v>
       </c>
       <c r="E10" t="n">
-        <v>480.1616161616162</v>
+        <v>203.3131313131313</v>
       </c>
     </row>
     <row r="11">
@@ -613,16 +613,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C11" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D11" t="n">
-        <v>540.1818181818182</v>
+        <v>228.7272727272727</v>
       </c>
       <c r="E11" t="n">
-        <v>540.1818181818182</v>
+        <v>228.7272727272727</v>
       </c>
     </row>
     <row r="12">
@@ -630,16 +630,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C12" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D12" t="n">
-        <v>600.2020202020202</v>
+        <v>254.1414141414141</v>
       </c>
       <c r="E12" t="n">
-        <v>600.2020202020202</v>
+        <v>254.1414141414141</v>
       </c>
     </row>
     <row r="13">
@@ -647,16 +647,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C13" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D13" t="n">
-        <v>660.2222222222222</v>
+        <v>279.5555555555555</v>
       </c>
       <c r="E13" t="n">
-        <v>660.2222222222222</v>
+        <v>279.5555555555555</v>
       </c>
     </row>
     <row r="14">
@@ -664,16 +664,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C14" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D14" t="n">
-        <v>720.2424242424242</v>
+        <v>304.969696969697</v>
       </c>
       <c r="E14" t="n">
-        <v>720.2424242424242</v>
+        <v>304.969696969697</v>
       </c>
     </row>
     <row r="15">
@@ -681,16 +681,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C15" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D15" t="n">
-        <v>780.2626262626263</v>
+        <v>330.3838383838384</v>
       </c>
       <c r="E15" t="n">
-        <v>780.2626262626263</v>
+        <v>330.3838383838384</v>
       </c>
     </row>
     <row r="16">
@@ -698,16 +698,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C16" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D16" t="n">
-        <v>840.2828282828283</v>
+        <v>355.7979797979798</v>
       </c>
       <c r="E16" t="n">
-        <v>840.2828282828283</v>
+        <v>355.7979797979798</v>
       </c>
     </row>
     <row r="17">
@@ -715,16 +715,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C17" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D17" t="n">
-        <v>900.3030303030303</v>
+        <v>381.2121212121212</v>
       </c>
       <c r="E17" t="n">
-        <v>900.3030303030303</v>
+        <v>381.2121212121212</v>
       </c>
     </row>
     <row r="18">
@@ -732,16 +732,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C18" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D18" t="n">
-        <v>960.3232323232323</v>
+        <v>406.6262626262626</v>
       </c>
       <c r="E18" t="n">
-        <v>960.3232323232323</v>
+        <v>406.6262626262626</v>
       </c>
     </row>
     <row r="19">
@@ -749,16 +749,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C19" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D19" t="n">
-        <v>1020.343434343434</v>
+        <v>432.040404040404</v>
       </c>
       <c r="E19" t="n">
-        <v>1020.343434343434</v>
+        <v>432.040404040404</v>
       </c>
     </row>
     <row r="20">
@@ -766,16 +766,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C20" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D20" t="n">
-        <v>1080.363636363636</v>
+        <v>457.4545454545455</v>
       </c>
       <c r="E20" t="n">
-        <v>1080.363636363636</v>
+        <v>457.4545454545455</v>
       </c>
     </row>
     <row r="21">
@@ -783,16 +783,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C21" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D21" t="n">
-        <v>1140.383838383838</v>
+        <v>482.8686868686869</v>
       </c>
       <c r="E21" t="n">
-        <v>1140.383838383838</v>
+        <v>482.8686868686869</v>
       </c>
     </row>
     <row r="22">
@@ -800,16 +800,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C22" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D22" t="n">
-        <v>1200.40404040404</v>
+        <v>508.2828282828283</v>
       </c>
       <c r="E22" t="n">
-        <v>1200.40404040404</v>
+        <v>508.2828282828283</v>
       </c>
     </row>
     <row r="23">
@@ -817,16 +817,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C23" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D23" t="n">
-        <v>1260.424242424242</v>
+        <v>533.6969696969697</v>
       </c>
       <c r="E23" t="n">
-        <v>1260.424242424242</v>
+        <v>533.6969696969697</v>
       </c>
     </row>
     <row r="24">
@@ -834,16 +834,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C24" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D24" t="n">
-        <v>1320.444444444444</v>
+        <v>559.1111111111111</v>
       </c>
       <c r="E24" t="n">
-        <v>1320.444444444444</v>
+        <v>559.1111111111111</v>
       </c>
     </row>
     <row r="25">
@@ -851,16 +851,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C25" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D25" t="n">
-        <v>1380.464646464646</v>
+        <v>584.5252525252525</v>
       </c>
       <c r="E25" t="n">
-        <v>1380.464646464646</v>
+        <v>584.5252525252525</v>
       </c>
     </row>
     <row r="26">
@@ -868,16 +868,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C26" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D26" t="n">
-        <v>1440.484848484848</v>
+        <v>609.939393939394</v>
       </c>
       <c r="E26" t="n">
-        <v>1440.484848484848</v>
+        <v>609.939393939394</v>
       </c>
     </row>
     <row r="27">
@@ -885,16 +885,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C27" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D27" t="n">
-        <v>1500.505050505051</v>
+        <v>635.3535353535353</v>
       </c>
       <c r="E27" t="n">
-        <v>1500.505050505051</v>
+        <v>635.3535353535353</v>
       </c>
     </row>
     <row r="28">
@@ -902,16 +902,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C28" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D28" t="n">
-        <v>1560.525252525253</v>
+        <v>660.7676767676768</v>
       </c>
       <c r="E28" t="n">
-        <v>1560.525252525253</v>
+        <v>660.7676767676768</v>
       </c>
     </row>
     <row r="29">
@@ -919,16 +919,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C29" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D29" t="n">
-        <v>1620.545454545455</v>
+        <v>686.1818181818182</v>
       </c>
       <c r="E29" t="n">
-        <v>1620.545454545455</v>
+        <v>686.1818181818182</v>
       </c>
     </row>
     <row r="30">
@@ -936,16 +936,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C30" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D30" t="n">
-        <v>1680.565656565657</v>
+        <v>711.5959595959596</v>
       </c>
       <c r="E30" t="n">
-        <v>1680.565656565657</v>
+        <v>711.5959595959596</v>
       </c>
     </row>
     <row r="31">
@@ -953,16 +953,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C31" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D31" t="n">
-        <v>1740.585858585859</v>
+        <v>737.010101010101</v>
       </c>
       <c r="E31" t="n">
-        <v>1740.585858585859</v>
+        <v>737.010101010101</v>
       </c>
     </row>
     <row r="32">
@@ -970,16 +970,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C32" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D32" t="n">
-        <v>1800.606060606061</v>
+        <v>762.4242424242425</v>
       </c>
       <c r="E32" t="n">
-        <v>1800.606060606061</v>
+        <v>762.4242424242425</v>
       </c>
     </row>
     <row r="33">
@@ -987,16 +987,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C33" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D33" t="n">
-        <v>1860.626262626263</v>
+        <v>787.8383838383838</v>
       </c>
       <c r="E33" t="n">
-        <v>1860.626262626263</v>
+        <v>787.8383838383838</v>
       </c>
     </row>
     <row r="34">
@@ -1004,16 +1004,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C34" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D34" t="n">
-        <v>1920.646464646465</v>
+        <v>813.2525252525253</v>
       </c>
       <c r="E34" t="n">
-        <v>1920.646464646465</v>
+        <v>813.2525252525253</v>
       </c>
     </row>
     <row r="35">
@@ -1021,16 +1021,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C35" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D35" t="n">
-        <v>1980.666666666667</v>
+        <v>838.6666666666667</v>
       </c>
       <c r="E35" t="n">
-        <v>1980.666666666667</v>
+        <v>838.6666666666667</v>
       </c>
     </row>
     <row r="36">
@@ -1038,16 +1038,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C36" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D36" t="n">
-        <v>2040.686868686869</v>
+        <v>864.0808080808081</v>
       </c>
       <c r="E36" t="n">
-        <v>2040.686868686869</v>
+        <v>864.0808080808081</v>
       </c>
     </row>
     <row r="37">
@@ -1055,16 +1055,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C37" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D37" t="n">
-        <v>2100.707070707071</v>
+        <v>889.4949494949495</v>
       </c>
       <c r="E37" t="n">
-        <v>2100.707070707071</v>
+        <v>889.4949494949495</v>
       </c>
     </row>
     <row r="38">
@@ -1072,16 +1072,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C38" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D38" t="n">
-        <v>2160.727272727273</v>
+        <v>914.909090909091</v>
       </c>
       <c r="E38" t="n">
-        <v>2160.727272727273</v>
+        <v>914.909090909091</v>
       </c>
     </row>
     <row r="39">
@@ -1089,16 +1089,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C39" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D39" t="n">
-        <v>2220.747474747475</v>
+        <v>940.3232323232323</v>
       </c>
       <c r="E39" t="n">
-        <v>2220.747474747475</v>
+        <v>940.3232323232323</v>
       </c>
     </row>
     <row r="40">
@@ -1106,16 +1106,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C40" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D40" t="n">
-        <v>2280.767676767677</v>
+        <v>965.7373737373738</v>
       </c>
       <c r="E40" t="n">
-        <v>2280.767676767677</v>
+        <v>965.7373737373738</v>
       </c>
     </row>
     <row r="41">
@@ -1123,16 +1123,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C41" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D41" t="n">
-        <v>2340.787878787879</v>
+        <v>991.1515151515152</v>
       </c>
       <c r="E41" t="n">
-        <v>2340.787878787879</v>
+        <v>991.1515151515152</v>
       </c>
     </row>
     <row r="42">
@@ -1140,16 +1140,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C42" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D42" t="n">
-        <v>2400.808080808081</v>
+        <v>1016.565656565657</v>
       </c>
       <c r="E42" t="n">
-        <v>2400.808080808081</v>
+        <v>1016.565656565657</v>
       </c>
     </row>
     <row r="43">
@@ -1157,16 +1157,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C43" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D43" t="n">
-        <v>2460.828282828283</v>
+        <v>1041.979797979798</v>
       </c>
       <c r="E43" t="n">
-        <v>2460.828282828283</v>
+        <v>1041.979797979798</v>
       </c>
     </row>
     <row r="44">
@@ -1174,16 +1174,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C44" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D44" t="n">
-        <v>2520.848484848485</v>
+        <v>1067.393939393939</v>
       </c>
       <c r="E44" t="n">
-        <v>2520.848484848485</v>
+        <v>1067.393939393939</v>
       </c>
     </row>
     <row r="45">
@@ -1191,16 +1191,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C45" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D45" t="n">
-        <v>2580.868686868687</v>
+        <v>1092.808080808081</v>
       </c>
       <c r="E45" t="n">
-        <v>2580.868686868687</v>
+        <v>1092.808080808081</v>
       </c>
     </row>
     <row r="46">
@@ -1208,16 +1208,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C46" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D46" t="n">
-        <v>2640.888888888889</v>
+        <v>1118.222222222222</v>
       </c>
       <c r="E46" t="n">
-        <v>2640.888888888889</v>
+        <v>1118.222222222222</v>
       </c>
     </row>
     <row r="47">
@@ -1225,16 +1225,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C47" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D47" t="n">
-        <v>2700.909090909091</v>
+        <v>1143.636363636364</v>
       </c>
       <c r="E47" t="n">
-        <v>2700.909090909091</v>
+        <v>1143.636363636364</v>
       </c>
     </row>
     <row r="48">
@@ -1242,16 +1242,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C48" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D48" t="n">
-        <v>2760.929292929293</v>
+        <v>1169.050505050505</v>
       </c>
       <c r="E48" t="n">
-        <v>2760.929292929293</v>
+        <v>1169.050505050505</v>
       </c>
     </row>
     <row r="49">
@@ -1259,16 +1259,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C49" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D49" t="n">
-        <v>2820.949494949495</v>
+        <v>1194.464646464646</v>
       </c>
       <c r="E49" t="n">
-        <v>2820.949494949495</v>
+        <v>1194.464646464646</v>
       </c>
     </row>
     <row r="50">
@@ -1276,16 +1276,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C50" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D50" t="n">
-        <v>2880.969696969697</v>
+        <v>1219.878787878788</v>
       </c>
       <c r="E50" t="n">
-        <v>2880.969696969697</v>
+        <v>1219.878787878788</v>
       </c>
     </row>
     <row r="51">
@@ -1293,16 +1293,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C51" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D51" t="n">
-        <v>2940.989898989899</v>
+        <v>1245.292929292929</v>
       </c>
       <c r="E51" t="n">
-        <v>2940.989898989899</v>
+        <v>1245.292929292929</v>
       </c>
     </row>
     <row r="52">
@@ -1310,16 +1310,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C52" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D52" t="n">
-        <v>3001.010101010101</v>
+        <v>1270.707070707071</v>
       </c>
       <c r="E52" t="n">
-        <v>3001.010101010101</v>
+        <v>1270.707070707071</v>
       </c>
     </row>
     <row r="53">
@@ -1327,16 +1327,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C53" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D53" t="n">
-        <v>3061.030303030303</v>
+        <v>1296.121212121212</v>
       </c>
       <c r="E53" t="n">
-        <v>3061.030303030303</v>
+        <v>1296.121212121212</v>
       </c>
     </row>
     <row r="54">
@@ -1344,16 +1344,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C54" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D54" t="n">
-        <v>3121.050505050505</v>
+        <v>1321.535353535354</v>
       </c>
       <c r="E54" t="n">
-        <v>3121.050505050505</v>
+        <v>1321.535353535354</v>
       </c>
     </row>
     <row r="55">
@@ -1361,16 +1361,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C55" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D55" t="n">
-        <v>3181.070707070707</v>
+        <v>1346.949494949495</v>
       </c>
       <c r="E55" t="n">
-        <v>3181.070707070707</v>
+        <v>1346.949494949495</v>
       </c>
     </row>
     <row r="56">
@@ -1378,16 +1378,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C56" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D56" t="n">
-        <v>3241.090909090909</v>
+        <v>1372.363636363636</v>
       </c>
       <c r="E56" t="n">
-        <v>3241.090909090909</v>
+        <v>1372.363636363636</v>
       </c>
     </row>
     <row r="57">
@@ -1395,16 +1395,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C57" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D57" t="n">
-        <v>3301.111111111111</v>
+        <v>1397.777777777778</v>
       </c>
       <c r="E57" t="n">
-        <v>3301.111111111111</v>
+        <v>1397.777777777778</v>
       </c>
     </row>
     <row r="58">
@@ -1412,16 +1412,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C58" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D58" t="n">
-        <v>3361.131313131313</v>
+        <v>1423.191919191919</v>
       </c>
       <c r="E58" t="n">
-        <v>3361.131313131313</v>
+        <v>1423.191919191919</v>
       </c>
     </row>
     <row r="59">
@@ -1429,16 +1429,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C59" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D59" t="n">
-        <v>3421.151515151515</v>
+        <v>1448.606060606061</v>
       </c>
       <c r="E59" t="n">
-        <v>3421.151515151515</v>
+        <v>1448.606060606061</v>
       </c>
     </row>
     <row r="60">
@@ -1446,16 +1446,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C60" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D60" t="n">
-        <v>3481.171717171717</v>
+        <v>1474.020202020202</v>
       </c>
       <c r="E60" t="n">
-        <v>3481.171717171717</v>
+        <v>1474.020202020202</v>
       </c>
     </row>
     <row r="61">
@@ -1463,16 +1463,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C61" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D61" t="n">
-        <v>3541.191919191919</v>
+        <v>1499.434343434343</v>
       </c>
       <c r="E61" t="n">
-        <v>3541.191919191919</v>
+        <v>1499.434343434343</v>
       </c>
     </row>
     <row r="62">
@@ -1480,16 +1480,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C62" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D62" t="n">
-        <v>3601.212121212121</v>
+        <v>1524.848484848485</v>
       </c>
       <c r="E62" t="n">
-        <v>3601.212121212121</v>
+        <v>1524.848484848485</v>
       </c>
     </row>
     <row r="63">
@@ -1497,16 +1497,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C63" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D63" t="n">
-        <v>3661.232323232323</v>
+        <v>1550.262626262626</v>
       </c>
       <c r="E63" t="n">
-        <v>3661.232323232323</v>
+        <v>1550.262626262626</v>
       </c>
     </row>
     <row r="64">
@@ -1514,16 +1514,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C64" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D64" t="n">
-        <v>3721.252525252525</v>
+        <v>1575.676767676768</v>
       </c>
       <c r="E64" t="n">
-        <v>3721.252525252525</v>
+        <v>1575.676767676768</v>
       </c>
     </row>
     <row r="65">
@@ -1531,16 +1531,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C65" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D65" t="n">
-        <v>3781.272727272727</v>
+        <v>1601.090909090909</v>
       </c>
       <c r="E65" t="n">
-        <v>3781.272727272727</v>
+        <v>1601.090909090909</v>
       </c>
     </row>
     <row r="66">
@@ -1548,16 +1548,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C66" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D66" t="n">
-        <v>3841.292929292929</v>
+        <v>1626.505050505051</v>
       </c>
       <c r="E66" t="n">
-        <v>3841.292929292929</v>
+        <v>1626.505050505051</v>
       </c>
     </row>
     <row r="67">
@@ -1565,16 +1565,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C67" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D67" t="n">
-        <v>3901.313131313131</v>
+        <v>1651.919191919192</v>
       </c>
       <c r="E67" t="n">
-        <v>3901.313131313131</v>
+        <v>1651.919191919192</v>
       </c>
     </row>
     <row r="68">
@@ -1582,16 +1582,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C68" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D68" t="n">
-        <v>3961.333333333333</v>
+        <v>1677.333333333333</v>
       </c>
       <c r="E68" t="n">
-        <v>3961.333333333333</v>
+        <v>1677.333333333333</v>
       </c>
     </row>
     <row r="69">
@@ -1599,16 +1599,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C69" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D69" t="n">
-        <v>4021.353535353535</v>
+        <v>1702.747474747475</v>
       </c>
       <c r="E69" t="n">
-        <v>4021.353535353535</v>
+        <v>1702.747474747475</v>
       </c>
     </row>
     <row r="70">
@@ -1616,16 +1616,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C70" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D70" t="n">
-        <v>4081.373737373738</v>
+        <v>1728.161616161616</v>
       </c>
       <c r="E70" t="n">
-        <v>4081.373737373738</v>
+        <v>1728.161616161616</v>
       </c>
     </row>
     <row r="71">
@@ -1633,16 +1633,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C71" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D71" t="n">
-        <v>4141.393939393939</v>
+        <v>1753.575757575758</v>
       </c>
       <c r="E71" t="n">
-        <v>4141.393939393939</v>
+        <v>1753.575757575758</v>
       </c>
     </row>
     <row r="72">
@@ -1650,16 +1650,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C72" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D72" t="n">
-        <v>4201.414141414141</v>
+        <v>1778.989898989899</v>
       </c>
       <c r="E72" t="n">
-        <v>4201.414141414141</v>
+        <v>1778.989898989899</v>
       </c>
     </row>
     <row r="73">
@@ -1667,16 +1667,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C73" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D73" t="n">
-        <v>4261.434343434344</v>
+        <v>1804.40404040404</v>
       </c>
       <c r="E73" t="n">
-        <v>4261.434343434344</v>
+        <v>1804.40404040404</v>
       </c>
     </row>
     <row r="74">
@@ -1684,16 +1684,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C74" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D74" t="n">
-        <v>4321.454545454546</v>
+        <v>1829.818181818182</v>
       </c>
       <c r="E74" t="n">
-        <v>4321.454545454546</v>
+        <v>1829.818181818182</v>
       </c>
     </row>
     <row r="75">
@@ -1701,16 +1701,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C75" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D75" t="n">
-        <v>4381.474747474747</v>
+        <v>1855.232323232323</v>
       </c>
       <c r="E75" t="n">
-        <v>4381.474747474747</v>
+        <v>1855.232323232323</v>
       </c>
     </row>
     <row r="76">
@@ -1718,16 +1718,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C76" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D76" t="n">
-        <v>4441.49494949495</v>
+        <v>1880.646464646465</v>
       </c>
       <c r="E76" t="n">
-        <v>4441.49494949495</v>
+        <v>1880.646464646465</v>
       </c>
     </row>
     <row r="77">
@@ -1735,16 +1735,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C77" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D77" t="n">
-        <v>4501.515151515152</v>
+        <v>1906.060606060606</v>
       </c>
       <c r="E77" t="n">
-        <v>4501.515151515152</v>
+        <v>1906.060606060606</v>
       </c>
     </row>
     <row r="78">
@@ -1752,16 +1752,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C78" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D78" t="n">
-        <v>4561.535353535353</v>
+        <v>1931.474747474748</v>
       </c>
       <c r="E78" t="n">
-        <v>4561.535353535353</v>
+        <v>1931.474747474748</v>
       </c>
     </row>
     <row r="79">
@@ -1769,16 +1769,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C79" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D79" t="n">
-        <v>4621.555555555556</v>
+        <v>1956.888888888889</v>
       </c>
       <c r="E79" t="n">
-        <v>4621.555555555556</v>
+        <v>1956.888888888889</v>
       </c>
     </row>
     <row r="80">
@@ -1786,16 +1786,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C80" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D80" t="n">
-        <v>4681.575757575758</v>
+        <v>1982.30303030303</v>
       </c>
       <c r="E80" t="n">
-        <v>4681.575757575758</v>
+        <v>1982.30303030303</v>
       </c>
     </row>
     <row r="81">
@@ -1803,16 +1803,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C81" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D81" t="n">
-        <v>4741.595959595959</v>
+        <v>2007.717171717172</v>
       </c>
       <c r="E81" t="n">
-        <v>4741.595959595959</v>
+        <v>2007.717171717172</v>
       </c>
     </row>
     <row r="82">
@@ -1820,16 +1820,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C82" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D82" t="n">
-        <v>4801.616161616162</v>
+        <v>2033.131313131313</v>
       </c>
       <c r="E82" t="n">
-        <v>4801.616161616162</v>
+        <v>2033.131313131313</v>
       </c>
     </row>
     <row r="83">
@@ -1837,16 +1837,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C83" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D83" t="n">
-        <v>4861.636363636364</v>
+        <v>2058.545454545455</v>
       </c>
       <c r="E83" t="n">
-        <v>4861.636363636364</v>
+        <v>2058.545454545455</v>
       </c>
     </row>
     <row r="84">
@@ -1854,16 +1854,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C84" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D84" t="n">
-        <v>4921.656565656565</v>
+        <v>2083.959595959596</v>
       </c>
       <c r="E84" t="n">
-        <v>4921.656565656565</v>
+        <v>2083.959595959596</v>
       </c>
     </row>
     <row r="85">
@@ -1871,16 +1871,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C85" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D85" t="n">
-        <v>4981.676767676768</v>
+        <v>2109.373737373738</v>
       </c>
       <c r="E85" t="n">
-        <v>4981.676767676768</v>
+        <v>2109.373737373738</v>
       </c>
     </row>
     <row r="86">
@@ -1888,16 +1888,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C86" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D86" t="n">
-        <v>5041.69696969697</v>
+        <v>2134.787878787879</v>
       </c>
       <c r="E86" t="n">
-        <v>5041.69696969697</v>
+        <v>2134.787878787879</v>
       </c>
     </row>
     <row r="87">
@@ -1905,16 +1905,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C87" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D87" t="n">
-        <v>5101.717171717171</v>
+        <v>2160.20202020202</v>
       </c>
       <c r="E87" t="n">
-        <v>5101.717171717171</v>
+        <v>2160.20202020202</v>
       </c>
     </row>
     <row r="88">
@@ -1922,16 +1922,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C88" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D88" t="n">
-        <v>5161.737373737374</v>
+        <v>2185.616161616162</v>
       </c>
       <c r="E88" t="n">
-        <v>5161.737373737374</v>
+        <v>2185.616161616162</v>
       </c>
     </row>
     <row r="89">
@@ -1939,16 +1939,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C89" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D89" t="n">
-        <v>5221.757575757576</v>
+        <v>2211.030303030303</v>
       </c>
       <c r="E89" t="n">
-        <v>5221.757575757576</v>
+        <v>2211.030303030303</v>
       </c>
     </row>
     <row r="90">
@@ -1956,16 +1956,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C90" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D90" t="n">
-        <v>5281.777777777777</v>
+        <v>2236.444444444444</v>
       </c>
       <c r="E90" t="n">
-        <v>5281.777777777777</v>
+        <v>2236.444444444444</v>
       </c>
     </row>
     <row r="91">
@@ -1973,16 +1973,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C91" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D91" t="n">
-        <v>5341.79797979798</v>
+        <v>2261.858585858586</v>
       </c>
       <c r="E91" t="n">
-        <v>5341.79797979798</v>
+        <v>2261.858585858586</v>
       </c>
     </row>
     <row r="92">
@@ -1990,16 +1990,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C92" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D92" t="n">
-        <v>5401.818181818182</v>
+        <v>2287.272727272727</v>
       </c>
       <c r="E92" t="n">
-        <v>5401.818181818182</v>
+        <v>2287.272727272727</v>
       </c>
     </row>
     <row r="93">
@@ -2007,16 +2007,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C93" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D93" t="n">
-        <v>5461.838383838384</v>
+        <v>2312.686868686869</v>
       </c>
       <c r="E93" t="n">
-        <v>5461.838383838384</v>
+        <v>2312.686868686869</v>
       </c>
     </row>
     <row r="94">
@@ -2024,16 +2024,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C94" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D94" t="n">
-        <v>5521.858585858586</v>
+        <v>2338.10101010101</v>
       </c>
       <c r="E94" t="n">
-        <v>5521.858585858586</v>
+        <v>2338.10101010101</v>
       </c>
     </row>
     <row r="95">
@@ -2041,16 +2041,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C95" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D95" t="n">
-        <v>5581.878787878788</v>
+        <v>2363.515151515152</v>
       </c>
       <c r="E95" t="n">
-        <v>5581.878787878788</v>
+        <v>2363.515151515152</v>
       </c>
     </row>
     <row r="96">
@@ -2058,16 +2058,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C96" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D96" t="n">
-        <v>5641.89898989899</v>
+        <v>2388.929292929293</v>
       </c>
       <c r="E96" t="n">
-        <v>5641.89898989899</v>
+        <v>2388.929292929293</v>
       </c>
     </row>
     <row r="97">
@@ -2075,16 +2075,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C97" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D97" t="n">
-        <v>5701.919191919192</v>
+        <v>2414.343434343435</v>
       </c>
       <c r="E97" t="n">
-        <v>5701.919191919192</v>
+        <v>2414.343434343435</v>
       </c>
     </row>
     <row r="98">
@@ -2092,16 +2092,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C98" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D98" t="n">
-        <v>5761.939393939394</v>
+        <v>2439.757575757576</v>
       </c>
       <c r="E98" t="n">
-        <v>5761.939393939394</v>
+        <v>2439.757575757576</v>
       </c>
     </row>
     <row r="99">
@@ -2109,16 +2109,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C99" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D99" t="n">
-        <v>5821.959595959596</v>
+        <v>2465.171717171717</v>
       </c>
       <c r="E99" t="n">
-        <v>5821.959595959596</v>
+        <v>2465.171717171717</v>
       </c>
     </row>
     <row r="100">
@@ -2126,16 +2126,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C100" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D100" t="n">
-        <v>5881.979797979798</v>
+        <v>2490.585858585859</v>
       </c>
       <c r="E100" t="n">
-        <v>5881.979797979798</v>
+        <v>2490.585858585859</v>
       </c>
     </row>
     <row r="101">
@@ -2143,16 +2143,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2680</v>
+        <v>1299</v>
       </c>
       <c r="C101" t="n">
-        <v>6150</v>
+        <v>7408</v>
       </c>
       <c r="D101" t="n">
-        <v>5942</v>
+        <v>2516</v>
       </c>
       <c r="E101" t="n">
-        <v>5942</v>
+        <v>2516</v>
       </c>
     </row>
   </sheetData>

--- a/FPH-LinearxNLinear.xlsx
+++ b/FPH-LinearxNLinear.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="FPHxFPHLFOZ CHAPECO " sheetId="1" r:id="rId1"/>
+    <sheet name="FPHxFPHLPICADA      " sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -408,10 +408,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C2">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C3">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>38.78787878787879</v>
+        <v>1.070707070707071</v>
       </c>
       <c r="E3">
-        <v>38.78787878787879</v>
+        <v>1.070707070707071</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C4">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>77.57575757575758</v>
+        <v>2.141414141414141</v>
       </c>
       <c r="E4">
-        <v>77.57575757575758</v>
+        <v>2.141414141414141</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C5">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>116.3636363636364</v>
+        <v>3.212121212121212</v>
       </c>
       <c r="E5">
-        <v>116.3636363636364</v>
+        <v>3.212121212121212</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C6">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>155.1515151515152</v>
+        <v>4.282828282828283</v>
       </c>
       <c r="E6">
-        <v>155.1515151515152</v>
+        <v>4.282828282828283</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C7">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>193.9393939393939</v>
+        <v>5.353535353535354</v>
       </c>
       <c r="E7">
-        <v>193.9393939393939</v>
+        <v>5.353535353535354</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C8">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>232.7272727272727</v>
+        <v>6.424242424242424</v>
       </c>
       <c r="E8">
-        <v>232.7272727272727</v>
+        <v>6.424242424242424</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C9">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>271.5151515151515</v>
+        <v>7.494949494949495</v>
       </c>
       <c r="E9">
-        <v>271.5151515151515</v>
+        <v>7.494949494949495</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C10">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>310.3030303030303</v>
+        <v>8.565656565656566</v>
       </c>
       <c r="E10">
-        <v>310.3030303030303</v>
+        <v>8.565656565656566</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C11">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>349.0909090909091</v>
+        <v>9.636363636363637</v>
       </c>
       <c r="E11">
-        <v>349.0909090909091</v>
+        <v>9.636363636363637</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C12">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>387.8787878787879</v>
+        <v>10.70707070707071</v>
       </c>
       <c r="E12">
-        <v>387.8787878787879</v>
+        <v>10.70707070707071</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C13">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>426.6666666666667</v>
+        <v>11.77777777777778</v>
       </c>
       <c r="E13">
-        <v>426.6666666666667</v>
+        <v>11.77777777777778</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C14">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>465.4545454545455</v>
+        <v>12.84848484848485</v>
       </c>
       <c r="E14">
-        <v>465.4545454545455</v>
+        <v>12.84848484848485</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C15">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>504.2424242424242</v>
+        <v>13.91919191919192</v>
       </c>
       <c r="E15">
-        <v>504.2424242424242</v>
+        <v>13.91919191919192</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C16">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>543.030303030303</v>
+        <v>14.98989898989899</v>
       </c>
       <c r="E16">
-        <v>543.030303030303</v>
+        <v>14.98989898989899</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C17">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>581.8181818181819</v>
+        <v>16.06060606060606</v>
       </c>
       <c r="E17">
-        <v>581.8181818181819</v>
+        <v>16.06060606060606</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C18">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>620.6060606060606</v>
+        <v>17.13131313131313</v>
       </c>
       <c r="E18">
-        <v>620.6060606060606</v>
+        <v>17.13131313131313</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C19">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>659.3939393939394</v>
+        <v>18.2020202020202</v>
       </c>
       <c r="E19">
-        <v>659.3939393939394</v>
+        <v>18.2020202020202</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C20">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>698.1818181818182</v>
+        <v>19.27272727272727</v>
       </c>
       <c r="E20">
-        <v>698.1818181818182</v>
+        <v>19.27272727272727</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -731,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C21">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>736.969696969697</v>
+        <v>20.34343434343434</v>
       </c>
       <c r="E21">
-        <v>736.969696969697</v>
+        <v>20.34343434343434</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -748,16 +748,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C22">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>775.7575757575758</v>
+        <v>21.41414141414142</v>
       </c>
       <c r="E22">
-        <v>775.7575757575758</v>
+        <v>21.41414141414142</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -765,16 +765,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C23">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>814.5454545454546</v>
+        <v>22.48484848484848</v>
       </c>
       <c r="E23">
-        <v>814.5454545454546</v>
+        <v>22.48484848484848</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -782,16 +782,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C24">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>853.3333333333334</v>
+        <v>23.55555555555556</v>
       </c>
       <c r="E24">
-        <v>853.3333333333334</v>
+        <v>23.55555555555556</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -799,16 +799,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C25">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D25">
-        <v>892.1212121212121</v>
+        <v>24.62626262626263</v>
       </c>
       <c r="E25">
-        <v>892.1212121212121</v>
+        <v>24.62626262626263</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -816,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C26">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>930.909090909091</v>
+        <v>25.6969696969697</v>
       </c>
       <c r="E26">
-        <v>930.909090909091</v>
+        <v>25.6969696969697</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,16 +833,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C27">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>969.6969696969697</v>
+        <v>26.76767676767677</v>
       </c>
       <c r="E27">
-        <v>969.6969696969697</v>
+        <v>26.76767676767677</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -850,16 +850,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C28">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D28">
-        <v>1008.484848484848</v>
+        <v>27.83838383838384</v>
       </c>
       <c r="E28">
-        <v>1008.484848484848</v>
+        <v>27.83838383838384</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -867,16 +867,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C29">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>1047.272727272727</v>
+        <v>28.90909090909091</v>
       </c>
       <c r="E29">
-        <v>1047.272727272727</v>
+        <v>28.90909090909091</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -884,16 +884,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C30">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>1086.060606060606</v>
+        <v>29.97979797979798</v>
       </c>
       <c r="E30">
-        <v>1086.060606060606</v>
+        <v>29.97979797979798</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -901,16 +901,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C31">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>1124.848484848485</v>
+        <v>31.05050505050505</v>
       </c>
       <c r="E31">
-        <v>1124.848484848485</v>
+        <v>31.05050505050505</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -918,16 +918,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C32">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>1163.636363636364</v>
+        <v>32.12121212121212</v>
       </c>
       <c r="E32">
-        <v>1163.636363636364</v>
+        <v>32.12121212121212</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -935,16 +935,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C33">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D33">
-        <v>1202.424242424242</v>
+        <v>33.19191919191919</v>
       </c>
       <c r="E33">
-        <v>1202.424242424242</v>
+        <v>33.19191919191919</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,16 +952,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C34">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>1241.212121212121</v>
+        <v>34.26262626262626</v>
       </c>
       <c r="E34">
-        <v>1241.212121212121</v>
+        <v>34.26262626262626</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -969,16 +969,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C35">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D35">
-        <v>1280</v>
+        <v>35.33333333333334</v>
       </c>
       <c r="E35">
-        <v>1280</v>
+        <v>35.33333333333334</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -986,16 +986,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C36">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D36">
-        <v>1318.787878787879</v>
+        <v>36.4040404040404</v>
       </c>
       <c r="E36">
-        <v>1318.787878787879</v>
+        <v>36.4040404040404</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1003,16 +1003,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C37">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D37">
-        <v>1357.575757575758</v>
+        <v>37.47474747474747</v>
       </c>
       <c r="E37">
-        <v>1357.575757575758</v>
+        <v>37.47474747474747</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,16 +1020,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C38">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D38">
-        <v>1396.363636363636</v>
+        <v>38.54545454545455</v>
       </c>
       <c r="E38">
-        <v>1396.363636363636</v>
+        <v>38.54545454545455</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1037,16 +1037,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C39">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D39">
-        <v>1435.151515151515</v>
+        <v>39.61616161616162</v>
       </c>
       <c r="E39">
-        <v>1435.151515151515</v>
+        <v>39.61616161616162</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1054,16 +1054,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C40">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D40">
-        <v>1473.939393939394</v>
+        <v>40.68686868686869</v>
       </c>
       <c r="E40">
-        <v>1473.939393939394</v>
+        <v>40.68686868686869</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1071,16 +1071,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C41">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D41">
-        <v>1512.727272727273</v>
+        <v>41.75757575757576</v>
       </c>
       <c r="E41">
-        <v>1512.727272727273</v>
+        <v>41.75757575757576</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,16 +1088,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C42">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D42">
-        <v>1551.515151515152</v>
+        <v>42.82828282828283</v>
       </c>
       <c r="E42">
-        <v>1551.515151515152</v>
+        <v>42.82828282828283</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1105,16 +1105,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C43">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D43">
-        <v>1590.30303030303</v>
+        <v>43.8989898989899</v>
       </c>
       <c r="E43">
-        <v>1590.30303030303</v>
+        <v>43.8989898989899</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1122,16 +1122,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C44">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D44">
-        <v>1629.090909090909</v>
+        <v>44.96969696969697</v>
       </c>
       <c r="E44">
-        <v>1629.090909090909</v>
+        <v>44.96969696969697</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1139,16 +1139,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C45">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D45">
-        <v>1667.878787878788</v>
+        <v>46.04040404040404</v>
       </c>
       <c r="E45">
-        <v>1667.878787878788</v>
+        <v>46.04040404040404</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,16 +1156,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C46">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D46">
-        <v>1706.666666666667</v>
+        <v>47.11111111111111</v>
       </c>
       <c r="E46">
-        <v>1706.666666666667</v>
+        <v>47.11111111111111</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1173,16 +1173,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C47">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D47">
-        <v>1745.454545454545</v>
+        <v>48.18181818181818</v>
       </c>
       <c r="E47">
-        <v>1745.454545454545</v>
+        <v>48.18181818181818</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1190,16 +1190,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C48">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D48">
-        <v>1784.242424242424</v>
+        <v>49.25252525252525</v>
       </c>
       <c r="E48">
-        <v>1784.242424242424</v>
+        <v>49.25252525252525</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1207,16 +1207,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C49">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D49">
-        <v>1823.030303030303</v>
+        <v>50.32323232323233</v>
       </c>
       <c r="E49">
-        <v>1823.030303030303</v>
+        <v>50.32323232323233</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,16 +1224,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C50">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D50">
-        <v>1861.818181818182</v>
+        <v>51.39393939393939</v>
       </c>
       <c r="E50">
-        <v>1861.818181818182</v>
+        <v>51.39393939393939</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1241,16 +1241,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C51">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D51">
-        <v>1900.606060606061</v>
+        <v>52.46464646464646</v>
       </c>
       <c r="E51">
-        <v>1900.606060606061</v>
+        <v>52.46464646464646</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1258,16 +1258,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C52">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D52">
-        <v>1939.393939393939</v>
+        <v>53.53535353535354</v>
       </c>
       <c r="E52">
-        <v>1939.393939393939</v>
+        <v>53.53535353535354</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1275,16 +1275,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C53">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D53">
-        <v>1978.181818181818</v>
+        <v>54.60606060606061</v>
       </c>
       <c r="E53">
-        <v>1978.181818181818</v>
+        <v>54.60606060606061</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1292,16 +1292,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C54">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D54">
-        <v>2016.969696969697</v>
+        <v>55.67676767676767</v>
       </c>
       <c r="E54">
-        <v>2016.969696969697</v>
+        <v>55.67676767676767</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1309,16 +1309,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C55">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D55">
-        <v>2055.757575757576</v>
+        <v>56.74747474747475</v>
       </c>
       <c r="E55">
-        <v>2055.757575757576</v>
+        <v>56.74747474747475</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1326,16 +1326,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C56">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D56">
-        <v>2094.545454545455</v>
+        <v>57.81818181818182</v>
       </c>
       <c r="E56">
-        <v>2094.545454545455</v>
+        <v>57.81818181818182</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1343,16 +1343,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C57">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D57">
-        <v>2133.333333333333</v>
+        <v>58.88888888888889</v>
       </c>
       <c r="E57">
-        <v>2133.333333333333</v>
+        <v>58.88888888888889</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1360,16 +1360,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C58">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D58">
-        <v>2172.121212121212</v>
+        <v>59.95959595959596</v>
       </c>
       <c r="E58">
-        <v>2172.121212121212</v>
+        <v>59.95959595959596</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1377,16 +1377,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C59">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D59">
-        <v>2210.909090909091</v>
+        <v>61.03030303030303</v>
       </c>
       <c r="E59">
-        <v>2210.909090909091</v>
+        <v>61.03030303030303</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1394,16 +1394,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C60">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D60">
-        <v>2249.69696969697</v>
+        <v>62.1010101010101</v>
       </c>
       <c r="E60">
-        <v>2249.69696969697</v>
+        <v>62.1010101010101</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1411,16 +1411,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C61">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D61">
-        <v>2288.484848484848</v>
+        <v>63.17171717171717</v>
       </c>
       <c r="E61">
-        <v>2288.484848484848</v>
+        <v>63.17171717171717</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1428,16 +1428,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C62">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D62">
-        <v>2327.272727272727</v>
+        <v>64.24242424242425</v>
       </c>
       <c r="E62">
-        <v>2327.272727272727</v>
+        <v>64.24242424242425</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1445,16 +1445,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C63">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D63">
-        <v>2366.060606060606</v>
+        <v>65.31313131313131</v>
       </c>
       <c r="E63">
-        <v>2366.060606060606</v>
+        <v>65.31313131313131</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1462,16 +1462,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C64">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D64">
-        <v>2404.848484848485</v>
+        <v>66.38383838383838</v>
       </c>
       <c r="E64">
-        <v>2404.848484848485</v>
+        <v>66.38383838383838</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1479,16 +1479,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C65">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D65">
-        <v>2443.636363636364</v>
+        <v>67.45454545454545</v>
       </c>
       <c r="E65">
-        <v>2443.636363636364</v>
+        <v>67.45454545454545</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1496,16 +1496,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C66">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D66">
-        <v>2482.424242424242</v>
+        <v>68.52525252525253</v>
       </c>
       <c r="E66">
-        <v>2482.424242424242</v>
+        <v>68.52525252525253</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1513,16 +1513,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C67">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D67">
-        <v>2521.212121212121</v>
+        <v>69.5959595959596</v>
       </c>
       <c r="E67">
-        <v>2521.212121212121</v>
+        <v>69.5959595959596</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1530,16 +1530,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C68">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D68">
-        <v>2560</v>
+        <v>70.66666666666667</v>
       </c>
       <c r="E68">
-        <v>2560</v>
+        <v>70.66666666666667</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1547,16 +1547,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C69">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D69">
-        <v>2598.787878787879</v>
+        <v>71.73737373737374</v>
       </c>
       <c r="E69">
-        <v>2598.787878787879</v>
+        <v>71.73737373737374</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1564,16 +1564,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C70">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D70">
-        <v>2637.575757575758</v>
+        <v>72.8080808080808</v>
       </c>
       <c r="E70">
-        <v>2637.575757575758</v>
+        <v>72.8080808080808</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1581,16 +1581,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C71">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D71">
-        <v>2676.363636363636</v>
+        <v>73.87878787878788</v>
       </c>
       <c r="E71">
-        <v>2676.363636363636</v>
+        <v>73.87878787878788</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1598,16 +1598,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C72">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D72">
-        <v>2715.151515151515</v>
+        <v>74.94949494949495</v>
       </c>
       <c r="E72">
-        <v>2715.151515151515</v>
+        <v>74.94949494949495</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1615,16 +1615,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C73">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D73">
-        <v>2753.939393939394</v>
+        <v>76.02020202020202</v>
       </c>
       <c r="E73">
-        <v>2753.939393939394</v>
+        <v>76.02020202020202</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1632,16 +1632,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C74">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D74">
-        <v>2792.727272727273</v>
+        <v>77.09090909090909</v>
       </c>
       <c r="E74">
-        <v>2792.727272727273</v>
+        <v>77.09090909090909</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1649,16 +1649,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C75">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D75">
-        <v>2831.515151515152</v>
+        <v>78.16161616161617</v>
       </c>
       <c r="E75">
-        <v>2831.515151515152</v>
+        <v>78.16161616161617</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1666,16 +1666,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C76">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D76">
-        <v>2870.30303030303</v>
+        <v>79.23232323232324</v>
       </c>
       <c r="E76">
-        <v>2870.30303030303</v>
+        <v>79.23232323232324</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1683,16 +1683,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C77">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D77">
-        <v>2909.090909090909</v>
+        <v>80.3030303030303</v>
       </c>
       <c r="E77">
-        <v>2909.090909090909</v>
+        <v>80.3030303030303</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1700,16 +1700,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C78">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D78">
-        <v>2947.878787878788</v>
+        <v>81.37373737373737</v>
       </c>
       <c r="E78">
-        <v>2947.878787878788</v>
+        <v>81.37373737373737</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1717,16 +1717,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C79">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D79">
-        <v>2986.666666666667</v>
+        <v>82.44444444444444</v>
       </c>
       <c r="E79">
-        <v>2986.666666666667</v>
+        <v>82.44444444444444</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1734,16 +1734,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C80">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D80">
-        <v>3025.454545454545</v>
+        <v>83.51515151515152</v>
       </c>
       <c r="E80">
-        <v>3025.454545454545</v>
+        <v>83.51515151515152</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1751,16 +1751,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C81">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D81">
-        <v>3064.242424242424</v>
+        <v>84.58585858585859</v>
       </c>
       <c r="E81">
-        <v>3064.242424242424</v>
+        <v>84.58585858585859</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1768,16 +1768,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C82">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D82">
-        <v>3103.030303030303</v>
+        <v>85.65656565656566</v>
       </c>
       <c r="E82">
-        <v>3103.030303030303</v>
+        <v>85.65656565656566</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1785,16 +1785,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C83">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D83">
-        <v>3141.818181818182</v>
+        <v>86.72727272727273</v>
       </c>
       <c r="E83">
-        <v>3141.818181818182</v>
+        <v>86.72727272727273</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1802,16 +1802,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C84">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D84">
-        <v>3180.606060606061</v>
+        <v>87.79797979797979</v>
       </c>
       <c r="E84">
-        <v>3180.606060606061</v>
+        <v>87.79797979797979</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1819,16 +1819,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C85">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D85">
-        <v>3219.393939393939</v>
+        <v>88.86868686868686</v>
       </c>
       <c r="E85">
-        <v>3219.393939393939</v>
+        <v>88.86868686868686</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1836,16 +1836,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C86">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D86">
-        <v>3258.181818181818</v>
+        <v>89.93939393939394</v>
       </c>
       <c r="E86">
-        <v>3258.181818181818</v>
+        <v>89.93939393939394</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1853,16 +1853,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C87">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D87">
-        <v>3296.969696969697</v>
+        <v>91.01010101010101</v>
       </c>
       <c r="E87">
-        <v>3296.969696969697</v>
+        <v>91.01010101010101</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1870,16 +1870,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C88">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D88">
-        <v>3335.757575757576</v>
+        <v>92.08080808080808</v>
       </c>
       <c r="E88">
-        <v>3335.757575757576</v>
+        <v>92.08080808080808</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1887,16 +1887,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C89">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D89">
-        <v>3374.545454545455</v>
+        <v>93.15151515151516</v>
       </c>
       <c r="E89">
-        <v>3374.545454545455</v>
+        <v>93.15151515151516</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1904,16 +1904,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C90">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D90">
-        <v>3413.333333333333</v>
+        <v>94.22222222222223</v>
       </c>
       <c r="E90">
-        <v>3413.333333333333</v>
+        <v>94.22222222222223</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1921,16 +1921,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C91">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D91">
-        <v>3452.121212121212</v>
+        <v>95.29292929292929</v>
       </c>
       <c r="E91">
-        <v>3452.121212121212</v>
+        <v>95.29292929292929</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1938,16 +1938,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C92">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D92">
-        <v>3490.909090909091</v>
+        <v>96.36363636363636</v>
       </c>
       <c r="E92">
-        <v>3490.909090909091</v>
+        <v>96.36363636363636</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1955,16 +1955,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C93">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D93">
-        <v>3529.69696969697</v>
+        <v>97.43434343434343</v>
       </c>
       <c r="E93">
-        <v>3529.69696969697</v>
+        <v>97.43434343434343</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1972,16 +1972,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C94">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D94">
-        <v>3568.484848484848</v>
+        <v>98.50505050505051</v>
       </c>
       <c r="E94">
-        <v>3568.484848484848</v>
+        <v>98.50505050505051</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1989,16 +1989,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C95">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D95">
-        <v>3607.272727272727</v>
+        <v>99.57575757575758</v>
       </c>
       <c r="E95">
-        <v>3607.272727272727</v>
+        <v>99.57575757575758</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2006,16 +2006,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C96">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D96">
-        <v>3646.060606060606</v>
+        <v>100.6464646464647</v>
       </c>
       <c r="E96">
-        <v>3646.060606060606</v>
+        <v>100.6464646464647</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2023,16 +2023,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C97">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D97">
-        <v>3684.848484848485</v>
+        <v>101.7171717171717</v>
       </c>
       <c r="E97">
-        <v>3684.848484848485</v>
+        <v>101.7171717171717</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2040,16 +2040,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C98">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D98">
-        <v>3723.636363636364</v>
+        <v>102.7878787878788</v>
       </c>
       <c r="E98">
-        <v>3723.636363636364</v>
+        <v>102.7878787878788</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2057,16 +2057,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C99">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D99">
-        <v>3762.424242424242</v>
+        <v>103.8585858585859</v>
       </c>
       <c r="E99">
-        <v>3762.424242424242</v>
+        <v>103.8585858585859</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2074,16 +2074,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C100">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D100">
-        <v>3801.212121212121</v>
+        <v>104.9292929292929</v>
       </c>
       <c r="E100">
-        <v>3801.212121212121</v>
+        <v>104.9292929292929</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2091,16 +2091,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1936</v>
+        <v>44</v>
       </c>
       <c r="C101">
-        <v>1501.800048828125</v>
+        <v>7</v>
       </c>
       <c r="D101">
-        <v>3840</v>
+        <v>106</v>
       </c>
       <c r="E101">
-        <v>3840</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/FPH-LinearxNLinear.xlsx
+++ b/FPH-LinearxNLinear.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="FPHxFPHLPICADA      " sheetId="1" r:id="rId1"/>
+    <sheet name="FPHxFPHLCANDONGA    " sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -408,10 +408,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D3">
-        <v>1.070707070707071</v>
+        <v>5.858585858585859</v>
       </c>
       <c r="E3">
-        <v>1.070707070707071</v>
+        <v>5.858585858585859</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D4">
-        <v>2.141414141414141</v>
+        <v>11.71717171717172</v>
       </c>
       <c r="E4">
-        <v>2.141414141414141</v>
+        <v>11.71717171717172</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D5">
-        <v>3.212121212121212</v>
+        <v>17.57575757575758</v>
       </c>
       <c r="E5">
-        <v>3.212121212121212</v>
+        <v>17.57575757575758</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D6">
-        <v>4.282828282828283</v>
+        <v>23.43434343434344</v>
       </c>
       <c r="E6">
-        <v>4.282828282828283</v>
+        <v>23.43434343434344</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D7">
-        <v>5.353535353535354</v>
+        <v>29.29292929292929</v>
       </c>
       <c r="E7">
-        <v>5.353535353535354</v>
+        <v>29.29292929292929</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D8">
-        <v>6.424242424242424</v>
+        <v>35.15151515151516</v>
       </c>
       <c r="E8">
-        <v>6.424242424242424</v>
+        <v>35.15151515151516</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D9">
-        <v>7.494949494949495</v>
+        <v>41.01010101010101</v>
       </c>
       <c r="E9">
-        <v>7.494949494949495</v>
+        <v>41.01010101010101</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D10">
-        <v>8.565656565656566</v>
+        <v>46.86868686868687</v>
       </c>
       <c r="E10">
-        <v>8.565656565656566</v>
+        <v>46.86868686868687</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D11">
-        <v>9.636363636363637</v>
+        <v>52.72727272727273</v>
       </c>
       <c r="E11">
-        <v>9.636363636363637</v>
+        <v>52.72727272727273</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D12">
-        <v>10.70707070707071</v>
+        <v>58.58585858585859</v>
       </c>
       <c r="E12">
-        <v>10.70707070707071</v>
+        <v>58.58585858585859</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D13">
-        <v>11.77777777777778</v>
+        <v>64.44444444444444</v>
       </c>
       <c r="E13">
-        <v>11.77777777777778</v>
+        <v>64.44444444444444</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D14">
-        <v>12.84848484848485</v>
+        <v>70.30303030303031</v>
       </c>
       <c r="E14">
-        <v>12.84848484848485</v>
+        <v>70.30303030303031</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D15">
-        <v>13.91919191919192</v>
+        <v>76.16161616161617</v>
       </c>
       <c r="E15">
-        <v>13.91919191919192</v>
+        <v>76.16161616161617</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D16">
-        <v>14.98989898989899</v>
+        <v>82.02020202020202</v>
       </c>
       <c r="E16">
-        <v>14.98989898989899</v>
+        <v>82.02020202020202</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D17">
-        <v>16.06060606060606</v>
+        <v>87.87878787878789</v>
       </c>
       <c r="E17">
-        <v>16.06060606060606</v>
+        <v>87.87878787878789</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D18">
-        <v>17.13131313131313</v>
+        <v>93.73737373737374</v>
       </c>
       <c r="E18">
-        <v>17.13131313131313</v>
+        <v>93.73737373737374</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D19">
-        <v>18.2020202020202</v>
+        <v>99.5959595959596</v>
       </c>
       <c r="E19">
-        <v>18.2020202020202</v>
+        <v>99.5959595959596</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D20">
-        <v>19.27272727272727</v>
+        <v>105.4545454545455</v>
       </c>
       <c r="E20">
-        <v>19.27272727272727</v>
+        <v>105.4545454545455</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -731,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D21">
-        <v>20.34343434343434</v>
+        <v>111.3131313131313</v>
       </c>
       <c r="E21">
-        <v>20.34343434343434</v>
+        <v>111.3131313131313</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -748,16 +748,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D22">
-        <v>21.41414141414142</v>
+        <v>117.1717171717172</v>
       </c>
       <c r="E22">
-        <v>21.41414141414142</v>
+        <v>117.1717171717172</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -765,16 +765,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D23">
-        <v>22.48484848484848</v>
+        <v>123.030303030303</v>
       </c>
       <c r="E23">
-        <v>22.48484848484848</v>
+        <v>123.030303030303</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -782,16 +782,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D24">
-        <v>23.55555555555556</v>
+        <v>128.8888888888889</v>
       </c>
       <c r="E24">
-        <v>23.55555555555556</v>
+        <v>128.8888888888889</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -799,16 +799,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D25">
-        <v>24.62626262626263</v>
+        <v>134.7474747474748</v>
       </c>
       <c r="E25">
-        <v>24.62626262626263</v>
+        <v>134.7474747474748</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -816,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D26">
-        <v>25.6969696969697</v>
+        <v>140.6060606060606</v>
       </c>
       <c r="E26">
-        <v>25.6969696969697</v>
+        <v>140.6060606060606</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,16 +833,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D27">
-        <v>26.76767676767677</v>
+        <v>146.4646464646465</v>
       </c>
       <c r="E27">
-        <v>26.76767676767677</v>
+        <v>146.4646464646465</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -850,16 +850,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D28">
-        <v>27.83838383838384</v>
+        <v>152.3232323232323</v>
       </c>
       <c r="E28">
-        <v>27.83838383838384</v>
+        <v>152.3232323232323</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -867,16 +867,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D29">
-        <v>28.90909090909091</v>
+        <v>158.1818181818182</v>
       </c>
       <c r="E29">
-        <v>28.90909090909091</v>
+        <v>158.1818181818182</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -884,16 +884,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D30">
-        <v>29.97979797979798</v>
+        <v>164.040404040404</v>
       </c>
       <c r="E30">
-        <v>29.97979797979798</v>
+        <v>164.040404040404</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -901,16 +901,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D31">
-        <v>31.05050505050505</v>
+        <v>169.8989898989899</v>
       </c>
       <c r="E31">
-        <v>31.05050505050505</v>
+        <v>169.8989898989899</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -918,16 +918,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D32">
-        <v>32.12121212121212</v>
+        <v>175.7575757575758</v>
       </c>
       <c r="E32">
-        <v>32.12121212121212</v>
+        <v>175.7575757575758</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -935,16 +935,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D33">
-        <v>33.19191919191919</v>
+        <v>181.6161616161616</v>
       </c>
       <c r="E33">
-        <v>33.19191919191919</v>
+        <v>181.6161616161616</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,16 +952,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D34">
-        <v>34.26262626262626</v>
+        <v>187.4747474747475</v>
       </c>
       <c r="E34">
-        <v>34.26262626262626</v>
+        <v>187.4747474747475</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -969,16 +969,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D35">
-        <v>35.33333333333334</v>
+        <v>193.3333333333333</v>
       </c>
       <c r="E35">
-        <v>35.33333333333334</v>
+        <v>193.3333333333333</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -986,16 +986,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D36">
-        <v>36.4040404040404</v>
+        <v>199.1919191919192</v>
       </c>
       <c r="E36">
-        <v>36.4040404040404</v>
+        <v>199.1919191919192</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1003,16 +1003,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D37">
-        <v>37.47474747474747</v>
+        <v>205.0505050505051</v>
       </c>
       <c r="E37">
-        <v>37.47474747474747</v>
+        <v>205.0505050505051</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,16 +1020,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D38">
-        <v>38.54545454545455</v>
+        <v>210.9090909090909</v>
       </c>
       <c r="E38">
-        <v>38.54545454545455</v>
+        <v>210.9090909090909</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1037,16 +1037,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D39">
-        <v>39.61616161616162</v>
+        <v>216.7676767676768</v>
       </c>
       <c r="E39">
-        <v>39.61616161616162</v>
+        <v>216.7676767676768</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1054,16 +1054,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C40">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D40">
-        <v>40.68686868686869</v>
+        <v>222.6262626262626</v>
       </c>
       <c r="E40">
-        <v>40.68686868686869</v>
+        <v>222.6262626262626</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1071,16 +1071,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D41">
-        <v>41.75757575757576</v>
+        <v>228.4848484848485</v>
       </c>
       <c r="E41">
-        <v>41.75757575757576</v>
+        <v>228.4848484848485</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,16 +1088,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D42">
-        <v>42.82828282828283</v>
+        <v>234.3434343434344</v>
       </c>
       <c r="E42">
-        <v>42.82828282828283</v>
+        <v>234.3434343434344</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1105,16 +1105,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C43">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D43">
-        <v>43.8989898989899</v>
+        <v>240.2020202020202</v>
       </c>
       <c r="E43">
-        <v>43.8989898989899</v>
+        <v>240.2020202020202</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1122,16 +1122,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C44">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D44">
-        <v>44.96969696969697</v>
+        <v>246.0606060606061</v>
       </c>
       <c r="E44">
-        <v>44.96969696969697</v>
+        <v>246.0606060606061</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1139,16 +1139,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D45">
-        <v>46.04040404040404</v>
+        <v>251.9191919191919</v>
       </c>
       <c r="E45">
-        <v>46.04040404040404</v>
+        <v>251.9191919191919</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,16 +1156,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D46">
-        <v>47.11111111111111</v>
+        <v>257.7777777777778</v>
       </c>
       <c r="E46">
-        <v>47.11111111111111</v>
+        <v>257.7777777777778</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1173,16 +1173,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D47">
-        <v>48.18181818181818</v>
+        <v>263.6363636363637</v>
       </c>
       <c r="E47">
-        <v>48.18181818181818</v>
+        <v>263.6363636363637</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1190,16 +1190,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C48">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D48">
-        <v>49.25252525252525</v>
+        <v>269.4949494949495</v>
       </c>
       <c r="E48">
-        <v>49.25252525252525</v>
+        <v>269.4949494949495</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1207,16 +1207,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C49">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D49">
-        <v>50.32323232323233</v>
+        <v>275.3535353535354</v>
       </c>
       <c r="E49">
-        <v>50.32323232323233</v>
+        <v>275.3535353535354</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,16 +1224,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D50">
-        <v>51.39393939393939</v>
+        <v>281.2121212121212</v>
       </c>
       <c r="E50">
-        <v>51.39393939393939</v>
+        <v>281.2121212121212</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1241,16 +1241,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C51">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D51">
-        <v>52.46464646464646</v>
+        <v>287.0707070707071</v>
       </c>
       <c r="E51">
-        <v>52.46464646464646</v>
+        <v>287.0707070707071</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1258,16 +1258,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D52">
-        <v>53.53535353535354</v>
+        <v>292.929292929293</v>
       </c>
       <c r="E52">
-        <v>53.53535353535354</v>
+        <v>292.929292929293</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1275,16 +1275,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C53">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D53">
-        <v>54.60606060606061</v>
+        <v>298.7878787878788</v>
       </c>
       <c r="E53">
-        <v>54.60606060606061</v>
+        <v>298.7878787878788</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1292,16 +1292,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D54">
-        <v>55.67676767676767</v>
+        <v>304.6464646464647</v>
       </c>
       <c r="E54">
-        <v>55.67676767676767</v>
+        <v>304.6464646464647</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1309,16 +1309,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D55">
-        <v>56.74747474747475</v>
+        <v>310.5050505050505</v>
       </c>
       <c r="E55">
-        <v>56.74747474747475</v>
+        <v>310.5050505050505</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1326,16 +1326,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C56">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D56">
-        <v>57.81818181818182</v>
+        <v>316.3636363636364</v>
       </c>
       <c r="E56">
-        <v>57.81818181818182</v>
+        <v>316.3636363636364</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1343,16 +1343,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C57">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D57">
-        <v>58.88888888888889</v>
+        <v>322.2222222222222</v>
       </c>
       <c r="E57">
-        <v>58.88888888888889</v>
+        <v>322.2222222222222</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1360,16 +1360,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D58">
-        <v>59.95959595959596</v>
+        <v>328.0808080808081</v>
       </c>
       <c r="E58">
-        <v>59.95959595959596</v>
+        <v>328.0808080808081</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1377,16 +1377,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D59">
-        <v>61.03030303030303</v>
+        <v>333.9393939393939</v>
       </c>
       <c r="E59">
-        <v>61.03030303030303</v>
+        <v>333.9393939393939</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1394,16 +1394,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C60">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D60">
-        <v>62.1010101010101</v>
+        <v>339.7979797979798</v>
       </c>
       <c r="E60">
-        <v>62.1010101010101</v>
+        <v>339.7979797979798</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1411,16 +1411,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C61">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D61">
-        <v>63.17171717171717</v>
+        <v>345.6565656565657</v>
       </c>
       <c r="E61">
-        <v>63.17171717171717</v>
+        <v>345.6565656565657</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1428,16 +1428,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C62">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D62">
-        <v>64.24242424242425</v>
+        <v>351.5151515151516</v>
       </c>
       <c r="E62">
-        <v>64.24242424242425</v>
+        <v>351.5151515151516</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1445,16 +1445,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C63">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D63">
-        <v>65.31313131313131</v>
+        <v>357.3737373737374</v>
       </c>
       <c r="E63">
-        <v>65.31313131313131</v>
+        <v>357.3737373737374</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1462,16 +1462,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C64">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D64">
-        <v>66.38383838383838</v>
+        <v>363.2323232323233</v>
       </c>
       <c r="E64">
-        <v>66.38383838383838</v>
+        <v>363.2323232323233</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1479,16 +1479,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C65">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D65">
-        <v>67.45454545454545</v>
+        <v>369.0909090909091</v>
       </c>
       <c r="E65">
-        <v>67.45454545454545</v>
+        <v>369.0909090909091</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1496,16 +1496,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C66">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D66">
-        <v>68.52525252525253</v>
+        <v>374.949494949495</v>
       </c>
       <c r="E66">
-        <v>68.52525252525253</v>
+        <v>374.949494949495</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1513,16 +1513,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C67">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D67">
-        <v>69.5959595959596</v>
+        <v>380.8080808080808</v>
       </c>
       <c r="E67">
-        <v>69.5959595959596</v>
+        <v>380.8080808080808</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1530,16 +1530,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C68">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D68">
-        <v>70.66666666666667</v>
+        <v>386.6666666666667</v>
       </c>
       <c r="E68">
-        <v>70.66666666666667</v>
+        <v>386.6666666666667</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1547,16 +1547,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C69">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D69">
-        <v>71.73737373737374</v>
+        <v>392.5252525252525</v>
       </c>
       <c r="E69">
-        <v>71.73737373737374</v>
+        <v>392.5252525252525</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1564,16 +1564,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C70">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D70">
-        <v>72.8080808080808</v>
+        <v>398.3838383838384</v>
       </c>
       <c r="E70">
-        <v>72.8080808080808</v>
+        <v>398.3838383838384</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1581,16 +1581,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C71">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D71">
-        <v>73.87878787878788</v>
+        <v>404.2424242424242</v>
       </c>
       <c r="E71">
-        <v>73.87878787878788</v>
+        <v>404.2424242424242</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1598,16 +1598,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C72">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D72">
-        <v>74.94949494949495</v>
+        <v>410.1010101010101</v>
       </c>
       <c r="E72">
-        <v>74.94949494949495</v>
+        <v>410.1010101010101</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1615,16 +1615,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C73">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D73">
-        <v>76.02020202020202</v>
+        <v>415.959595959596</v>
       </c>
       <c r="E73">
-        <v>76.02020202020202</v>
+        <v>415.959595959596</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1632,16 +1632,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C74">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D74">
-        <v>77.09090909090909</v>
+        <v>421.8181818181819</v>
       </c>
       <c r="E74">
-        <v>77.09090909090909</v>
+        <v>421.8181818181819</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1649,16 +1649,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C75">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D75">
-        <v>78.16161616161617</v>
+        <v>427.6767676767677</v>
       </c>
       <c r="E75">
-        <v>78.16161616161617</v>
+        <v>427.6767676767677</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1666,16 +1666,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C76">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D76">
-        <v>79.23232323232324</v>
+        <v>433.5353535353536</v>
       </c>
       <c r="E76">
-        <v>79.23232323232324</v>
+        <v>433.5353535353536</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1683,16 +1683,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C77">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D77">
-        <v>80.3030303030303</v>
+        <v>439.3939393939394</v>
       </c>
       <c r="E77">
-        <v>80.3030303030303</v>
+        <v>439.3939393939394</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1700,16 +1700,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C78">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D78">
-        <v>81.37373737373737</v>
+        <v>445.2525252525253</v>
       </c>
       <c r="E78">
-        <v>81.37373737373737</v>
+        <v>445.2525252525253</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1717,16 +1717,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C79">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D79">
-        <v>82.44444444444444</v>
+        <v>451.1111111111111</v>
       </c>
       <c r="E79">
-        <v>82.44444444444444</v>
+        <v>451.1111111111111</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1734,16 +1734,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C80">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D80">
-        <v>83.51515151515152</v>
+        <v>456.969696969697</v>
       </c>
       <c r="E80">
-        <v>83.51515151515152</v>
+        <v>456.969696969697</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1751,16 +1751,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C81">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D81">
-        <v>84.58585858585859</v>
+        <v>462.8282828282829</v>
       </c>
       <c r="E81">
-        <v>84.58585858585859</v>
+        <v>462.8282828282829</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1768,16 +1768,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C82">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D82">
-        <v>85.65656565656566</v>
+        <v>468.6868686868687</v>
       </c>
       <c r="E82">
-        <v>85.65656565656566</v>
+        <v>468.6868686868687</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1785,16 +1785,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C83">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D83">
-        <v>86.72727272727273</v>
+        <v>474.5454545454546</v>
       </c>
       <c r="E83">
-        <v>86.72727272727273</v>
+        <v>474.5454545454546</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1802,16 +1802,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C84">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D84">
-        <v>87.79797979797979</v>
+        <v>480.4040404040404</v>
       </c>
       <c r="E84">
-        <v>87.79797979797979</v>
+        <v>480.4040404040404</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1819,16 +1819,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C85">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D85">
-        <v>88.86868686868686</v>
+        <v>486.2626262626263</v>
       </c>
       <c r="E85">
-        <v>88.86868686868686</v>
+        <v>486.2626262626263</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1836,16 +1836,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C86">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D86">
-        <v>89.93939393939394</v>
+        <v>492.1212121212122</v>
       </c>
       <c r="E86">
-        <v>89.93939393939394</v>
+        <v>492.1212121212122</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1853,16 +1853,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C87">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D87">
-        <v>91.01010101010101</v>
+        <v>497.979797979798</v>
       </c>
       <c r="E87">
-        <v>91.01010101010101</v>
+        <v>497.979797979798</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1870,16 +1870,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C88">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D88">
-        <v>92.08080808080808</v>
+        <v>503.8383838383839</v>
       </c>
       <c r="E88">
-        <v>92.08080808080808</v>
+        <v>503.8383838383839</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1887,16 +1887,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C89">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D89">
-        <v>93.15151515151516</v>
+        <v>509.6969696969697</v>
       </c>
       <c r="E89">
-        <v>93.15151515151516</v>
+        <v>509.6969696969697</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1904,16 +1904,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C90">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D90">
-        <v>94.22222222222223</v>
+        <v>515.5555555555555</v>
       </c>
       <c r="E90">
-        <v>94.22222222222223</v>
+        <v>515.5555555555555</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1921,16 +1921,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C91">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D91">
-        <v>95.29292929292929</v>
+        <v>521.4141414141415</v>
       </c>
       <c r="E91">
-        <v>95.29292929292929</v>
+        <v>521.4141414141415</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1938,16 +1938,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C92">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D92">
-        <v>96.36363636363636</v>
+        <v>527.2727272727274</v>
       </c>
       <c r="E92">
-        <v>96.36363636363636</v>
+        <v>527.2727272727274</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1955,16 +1955,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C93">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D93">
-        <v>97.43434343434343</v>
+        <v>533.1313131313132</v>
       </c>
       <c r="E93">
-        <v>97.43434343434343</v>
+        <v>533.1313131313132</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1972,16 +1972,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C94">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D94">
-        <v>98.50505050505051</v>
+        <v>538.9898989898991</v>
       </c>
       <c r="E94">
-        <v>98.50505050505051</v>
+        <v>538.9898989898991</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1989,16 +1989,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C95">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D95">
-        <v>99.57575757575758</v>
+        <v>544.8484848484849</v>
       </c>
       <c r="E95">
-        <v>99.57575757575758</v>
+        <v>544.8484848484849</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2006,16 +2006,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C96">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D96">
-        <v>100.6464646464647</v>
+        <v>550.7070707070708</v>
       </c>
       <c r="E96">
-        <v>100.6464646464647</v>
+        <v>550.7070707070708</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2023,16 +2023,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C97">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D97">
-        <v>101.7171717171717</v>
+        <v>556.5656565656566</v>
       </c>
       <c r="E97">
-        <v>101.7171717171717</v>
+        <v>556.5656565656566</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2040,16 +2040,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C98">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D98">
-        <v>102.7878787878788</v>
+        <v>562.4242424242425</v>
       </c>
       <c r="E98">
-        <v>102.7878787878788</v>
+        <v>562.4242424242425</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2057,16 +2057,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C99">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D99">
-        <v>103.8585858585859</v>
+        <v>568.2828282828283</v>
       </c>
       <c r="E99">
-        <v>103.8585858585859</v>
+        <v>568.2828282828283</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2074,16 +2074,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C100">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D100">
-        <v>104.9292929292929</v>
+        <v>574.1414141414142</v>
       </c>
       <c r="E100">
-        <v>104.9292929292929</v>
+        <v>574.1414141414142</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2091,16 +2091,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="C101">
-        <v>7</v>
+        <v>29.75</v>
       </c>
       <c r="D101">
-        <v>106</v>
+        <v>580</v>
       </c>
       <c r="E101">
-        <v>106</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>

--- a/FPH-LinearxNLinear.xlsx
+++ b/FPH-LinearxNLinear.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="FPHxFPHLNOVA PONTE  " sheetId="1" r:id="rId1"/>
+    <sheet name="FPHxFPHLBATALHA     " sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -408,10 +408,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C2">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C3">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D3">
-        <v>5.96969696969697</v>
+        <v>3.898989898989899</v>
       </c>
       <c r="E3">
-        <v>5.96969696969697</v>
+        <v>3.898989898989899</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C4">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D4">
-        <v>11.93939393939394</v>
+        <v>7.797979797979798</v>
       </c>
       <c r="E4">
-        <v>11.93939393939394</v>
+        <v>7.797979797979798</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C5">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D5">
-        <v>17.90909090909091</v>
+        <v>11.6969696969697</v>
       </c>
       <c r="E5">
-        <v>17.90909090909091</v>
+        <v>11.6969696969697</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C6">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D6">
-        <v>23.87878787878788</v>
+        <v>15.5959595959596</v>
       </c>
       <c r="E6">
-        <v>23.87878787878788</v>
+        <v>15.5959595959596</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C7">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D7">
-        <v>29.84848484848485</v>
+        <v>19.49494949494949</v>
       </c>
       <c r="E7">
-        <v>29.84848484848485</v>
+        <v>19.49494949494949</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C8">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D8">
-        <v>35.81818181818182</v>
+        <v>23.39393939393939</v>
       </c>
       <c r="E8">
-        <v>35.81818181818182</v>
+        <v>23.39393939393939</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C9">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D9">
-        <v>41.78787878787879</v>
+        <v>27.29292929292929</v>
       </c>
       <c r="E9">
-        <v>41.78787878787879</v>
+        <v>27.29292929292929</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C10">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D10">
-        <v>47.75757575757576</v>
+        <v>31.19191919191919</v>
       </c>
       <c r="E10">
-        <v>47.75757575757576</v>
+        <v>31.19191919191919</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C11">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D11">
-        <v>53.72727272727273</v>
+        <v>35.09090909090909</v>
       </c>
       <c r="E11">
-        <v>53.72727272727273</v>
+        <v>35.09090909090909</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C12">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D12">
-        <v>59.6969696969697</v>
+        <v>38.98989898989899</v>
       </c>
       <c r="E12">
-        <v>59.6969696969697</v>
+        <v>38.98989898989899</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C13">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D13">
-        <v>65.66666666666667</v>
+        <v>42.88888888888889</v>
       </c>
       <c r="E13">
-        <v>65.66666666666667</v>
+        <v>42.88888888888889</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C14">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D14">
-        <v>71.63636363636364</v>
+        <v>46.78787878787878</v>
       </c>
       <c r="E14">
-        <v>71.63636363636364</v>
+        <v>46.78787878787878</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C15">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D15">
-        <v>77.60606060606061</v>
+        <v>50.68686868686869</v>
       </c>
       <c r="E15">
-        <v>77.60606060606061</v>
+        <v>50.68686868686869</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C16">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D16">
-        <v>83.57575757575758</v>
+        <v>54.58585858585858</v>
       </c>
       <c r="E16">
-        <v>83.57575757575758</v>
+        <v>54.58585858585858</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C17">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D17">
-        <v>89.54545454545455</v>
+        <v>58.48484848484848</v>
       </c>
       <c r="E17">
-        <v>89.54545454545455</v>
+        <v>58.48484848484848</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C18">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D18">
-        <v>95.51515151515152</v>
+        <v>62.38383838383838</v>
       </c>
       <c r="E18">
-        <v>95.51515151515152</v>
+        <v>62.38383838383838</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C19">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D19">
-        <v>101.4848484848485</v>
+        <v>66.28282828282828</v>
       </c>
       <c r="E19">
-        <v>101.4848484848485</v>
+        <v>66.28282828282828</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C20">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D20">
-        <v>107.4545454545455</v>
+        <v>70.18181818181817</v>
       </c>
       <c r="E20">
-        <v>107.4545454545455</v>
+        <v>70.18181818181817</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -731,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C21">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D21">
-        <v>113.4242424242424</v>
+        <v>74.08080808080808</v>
       </c>
       <c r="E21">
-        <v>113.4242424242424</v>
+        <v>74.08080808080808</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -748,16 +748,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C22">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D22">
-        <v>119.3939393939394</v>
+        <v>77.97979797979798</v>
       </c>
       <c r="E22">
-        <v>119.3939393939394</v>
+        <v>77.97979797979798</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -765,16 +765,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C23">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D23">
-        <v>125.3636363636364</v>
+        <v>81.87878787878788</v>
       </c>
       <c r="E23">
-        <v>125.3636363636364</v>
+        <v>81.87878787878788</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -782,16 +782,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C24">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D24">
-        <v>131.3333333333333</v>
+        <v>85.77777777777777</v>
       </c>
       <c r="E24">
-        <v>131.3333333333333</v>
+        <v>85.77777777777777</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -799,16 +799,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C25">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D25">
-        <v>137.3030303030303</v>
+        <v>89.67676767676767</v>
       </c>
       <c r="E25">
-        <v>137.3030303030303</v>
+        <v>89.67676767676767</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -816,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C26">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D26">
-        <v>143.2727272727273</v>
+        <v>93.57575757575756</v>
       </c>
       <c r="E26">
-        <v>143.2727272727273</v>
+        <v>93.57575757575756</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,16 +833,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C27">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D27">
-        <v>149.2424242424242</v>
+        <v>97.47474747474747</v>
       </c>
       <c r="E27">
-        <v>149.2424242424242</v>
+        <v>97.47474747474747</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -850,16 +850,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C28">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D28">
-        <v>155.2121212121212</v>
+        <v>101.3737373737374</v>
       </c>
       <c r="E28">
-        <v>155.2121212121212</v>
+        <v>101.3737373737374</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -867,16 +867,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C29">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D29">
-        <v>161.1818181818182</v>
+        <v>105.2727272727273</v>
       </c>
       <c r="E29">
-        <v>161.1818181818182</v>
+        <v>105.2727272727273</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -884,16 +884,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C30">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D30">
-        <v>167.1515151515152</v>
+        <v>109.1717171717172</v>
       </c>
       <c r="E30">
-        <v>167.1515151515152</v>
+        <v>109.1717171717172</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -901,16 +901,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C31">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D31">
-        <v>173.1212121212121</v>
+        <v>113.0707070707071</v>
       </c>
       <c r="E31">
-        <v>173.1212121212121</v>
+        <v>113.0707070707071</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -918,16 +918,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C32">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D32">
-        <v>179.0909090909091</v>
+        <v>116.969696969697</v>
       </c>
       <c r="E32">
-        <v>179.0909090909091</v>
+        <v>116.969696969697</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -935,16 +935,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C33">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D33">
-        <v>185.0606060606061</v>
+        <v>120.8686868686869</v>
       </c>
       <c r="E33">
-        <v>185.0606060606061</v>
+        <v>120.8686868686869</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,16 +952,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C34">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D34">
-        <v>191.030303030303</v>
+        <v>124.7676767676768</v>
       </c>
       <c r="E34">
-        <v>191.030303030303</v>
+        <v>124.7676767676768</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -969,16 +969,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C35">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D35">
-        <v>197</v>
+        <v>128.6666666666667</v>
       </c>
       <c r="E35">
-        <v>197</v>
+        <v>128.6666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -986,16 +986,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C36">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D36">
-        <v>202.969696969697</v>
+        <v>132.5656565656566</v>
       </c>
       <c r="E36">
-        <v>202.969696969697</v>
+        <v>132.5656565656566</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1003,16 +1003,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C37">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D37">
-        <v>208.9393939393939</v>
+        <v>136.4646464646464</v>
       </c>
       <c r="E37">
-        <v>208.9393939393939</v>
+        <v>136.4646464646464</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,16 +1020,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C38">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D38">
-        <v>214.9090909090909</v>
+        <v>140.3636363636363</v>
       </c>
       <c r="E38">
-        <v>214.9090909090909</v>
+        <v>140.3636363636363</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1037,16 +1037,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C39">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D39">
-        <v>220.8787878787879</v>
+        <v>144.2626262626262</v>
       </c>
       <c r="E39">
-        <v>220.8787878787879</v>
+        <v>144.2626262626262</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1054,16 +1054,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C40">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D40">
-        <v>226.8484848484848</v>
+        <v>148.1616161616162</v>
       </c>
       <c r="E40">
-        <v>226.8484848484848</v>
+        <v>148.1616161616162</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1071,16 +1071,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C41">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D41">
-        <v>232.8181818181818</v>
+        <v>152.0606060606061</v>
       </c>
       <c r="E41">
-        <v>232.8181818181818</v>
+        <v>152.0606060606061</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,16 +1088,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C42">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D42">
-        <v>238.7878787878788</v>
+        <v>155.959595959596</v>
       </c>
       <c r="E42">
-        <v>238.7878787878788</v>
+        <v>155.959595959596</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1105,16 +1105,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C43">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D43">
-        <v>244.7575757575758</v>
+        <v>159.8585858585859</v>
       </c>
       <c r="E43">
-        <v>244.7575757575758</v>
+        <v>159.8585858585859</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1122,16 +1122,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C44">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D44">
-        <v>250.7272727272727</v>
+        <v>163.7575757575758</v>
       </c>
       <c r="E44">
-        <v>250.7272727272727</v>
+        <v>163.7575757575758</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1139,16 +1139,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C45">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D45">
-        <v>256.6969696969697</v>
+        <v>167.6565656565656</v>
       </c>
       <c r="E45">
-        <v>256.6969696969697</v>
+        <v>167.6565656565656</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,16 +1156,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C46">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D46">
-        <v>262.6666666666667</v>
+        <v>171.5555555555555</v>
       </c>
       <c r="E46">
-        <v>262.6666666666667</v>
+        <v>171.5555555555555</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1173,16 +1173,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C47">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D47">
-        <v>268.6363636363636</v>
+        <v>175.4545454545454</v>
       </c>
       <c r="E47">
-        <v>268.6363636363636</v>
+        <v>175.4545454545454</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1190,16 +1190,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C48">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D48">
-        <v>274.6060606060606</v>
+        <v>179.3535353535353</v>
       </c>
       <c r="E48">
-        <v>274.6060606060606</v>
+        <v>179.3535353535353</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1207,16 +1207,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C49">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D49">
-        <v>280.5757575757576</v>
+        <v>183.2525252525252</v>
       </c>
       <c r="E49">
-        <v>280.5757575757576</v>
+        <v>183.2525252525252</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,16 +1224,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C50">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D50">
-        <v>286.5454545454546</v>
+        <v>187.1515151515151</v>
       </c>
       <c r="E50">
-        <v>286.5454545454546</v>
+        <v>187.1515151515151</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1241,16 +1241,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C51">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D51">
-        <v>292.5151515151515</v>
+        <v>191.0505050505051</v>
       </c>
       <c r="E51">
-        <v>292.5151515151515</v>
+        <v>191.0505050505051</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1258,16 +1258,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C52">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D52">
-        <v>298.4848484848485</v>
+        <v>194.9494949494949</v>
       </c>
       <c r="E52">
-        <v>298.4848484848485</v>
+        <v>194.9494949494949</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1275,16 +1275,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C53">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D53">
-        <v>304.4545454545454</v>
+        <v>198.8484848484848</v>
       </c>
       <c r="E53">
-        <v>304.4545454545454</v>
+        <v>198.8484848484848</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1292,16 +1292,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C54">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D54">
-        <v>310.4242424242424</v>
+        <v>202.7474747474747</v>
       </c>
       <c r="E54">
-        <v>310.4242424242424</v>
+        <v>202.7474747474747</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1309,16 +1309,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C55">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D55">
-        <v>316.3939393939394</v>
+        <v>206.6464646464646</v>
       </c>
       <c r="E55">
-        <v>316.3939393939394</v>
+        <v>206.6464646464646</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1326,16 +1326,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C56">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D56">
-        <v>322.3636363636364</v>
+        <v>210.5454545454545</v>
       </c>
       <c r="E56">
-        <v>322.3636363636364</v>
+        <v>210.5454545454545</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1343,16 +1343,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C57">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D57">
-        <v>328.3333333333333</v>
+        <v>214.4444444444444</v>
       </c>
       <c r="E57">
-        <v>328.3333333333333</v>
+        <v>214.4444444444444</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1360,16 +1360,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C58">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D58">
-        <v>334.3030303030303</v>
+        <v>218.3434343434343</v>
       </c>
       <c r="E58">
-        <v>334.3030303030303</v>
+        <v>218.3434343434343</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1377,16 +1377,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C59">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D59">
-        <v>340.2727272727273</v>
+        <v>222.2424242424242</v>
       </c>
       <c r="E59">
-        <v>340.2727272727273</v>
+        <v>222.2424242424242</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1394,16 +1394,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C60">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D60">
-        <v>346.2424242424242</v>
+        <v>226.1414141414141</v>
       </c>
       <c r="E60">
-        <v>346.2424242424242</v>
+        <v>226.1414141414141</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1411,16 +1411,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C61">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D61">
-        <v>352.2121212121212</v>
+        <v>230.040404040404</v>
       </c>
       <c r="E61">
-        <v>352.2121212121212</v>
+        <v>230.040404040404</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1428,16 +1428,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C62">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D62">
-        <v>358.1818181818182</v>
+        <v>233.9393939393939</v>
       </c>
       <c r="E62">
-        <v>358.1818181818182</v>
+        <v>233.9393939393939</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1445,16 +1445,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C63">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D63">
-        <v>364.1515151515151</v>
+        <v>237.8383838383838</v>
       </c>
       <c r="E63">
-        <v>364.1515151515151</v>
+        <v>237.8383838383838</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1462,16 +1462,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C64">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D64">
-        <v>370.1212121212121</v>
+        <v>241.7373737373737</v>
       </c>
       <c r="E64">
-        <v>370.1212121212121</v>
+        <v>241.7373737373737</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1479,16 +1479,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C65">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D65">
-        <v>376.0909090909091</v>
+        <v>245.6363636363636</v>
       </c>
       <c r="E65">
-        <v>376.0909090909091</v>
+        <v>245.6363636363636</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1496,16 +1496,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C66">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D66">
-        <v>382.0606060606061</v>
+        <v>249.5353535353535</v>
       </c>
       <c r="E66">
-        <v>382.0606060606061</v>
+        <v>249.5353535353535</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1513,16 +1513,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C67">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D67">
-        <v>388.0303030303031</v>
+        <v>253.4343434343434</v>
       </c>
       <c r="E67">
-        <v>388.0303030303031</v>
+        <v>253.4343434343434</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1530,16 +1530,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C68">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D68">
-        <v>394</v>
+        <v>257.3333333333333</v>
       </c>
       <c r="E68">
-        <v>394</v>
+        <v>257.3333333333333</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1547,16 +1547,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C69">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D69">
-        <v>399.969696969697</v>
+        <v>261.2323232323232</v>
       </c>
       <c r="E69">
-        <v>399.969696969697</v>
+        <v>261.2323232323232</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1564,16 +1564,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C70">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D70">
-        <v>405.9393939393939</v>
+        <v>265.1313131313131</v>
       </c>
       <c r="E70">
-        <v>405.9393939393939</v>
+        <v>265.1313131313131</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1581,16 +1581,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C71">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D71">
-        <v>411.9090909090909</v>
+        <v>269.030303030303</v>
       </c>
       <c r="E71">
-        <v>411.9090909090909</v>
+        <v>269.030303030303</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1598,16 +1598,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C72">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D72">
-        <v>417.8787878787879</v>
+        <v>272.9292929292929</v>
       </c>
       <c r="E72">
-        <v>417.8787878787879</v>
+        <v>272.9292929292929</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1615,16 +1615,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C73">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D73">
-        <v>423.8484848484849</v>
+        <v>276.8282828282828</v>
       </c>
       <c r="E73">
-        <v>423.8484848484849</v>
+        <v>276.8282828282828</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1632,16 +1632,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C74">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D74">
-        <v>429.8181818181818</v>
+        <v>280.7272727272727</v>
       </c>
       <c r="E74">
-        <v>429.8181818181818</v>
+        <v>280.7272727272727</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1649,16 +1649,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C75">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D75">
-        <v>435.7878787878788</v>
+        <v>284.6262626262626</v>
       </c>
       <c r="E75">
-        <v>435.7878787878788</v>
+        <v>284.6262626262626</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1666,16 +1666,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C76">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D76">
-        <v>441.7575757575758</v>
+        <v>288.5252525252525</v>
       </c>
       <c r="E76">
-        <v>441.7575757575758</v>
+        <v>288.5252525252525</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1683,16 +1683,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C77">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D77">
-        <v>447.7272727272727</v>
+        <v>292.4242424242424</v>
       </c>
       <c r="E77">
-        <v>447.7272727272727</v>
+        <v>292.4242424242424</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1700,16 +1700,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C78">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D78">
-        <v>453.6969696969697</v>
+        <v>296.3232323232323</v>
       </c>
       <c r="E78">
-        <v>453.6969696969697</v>
+        <v>296.3232323232323</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1717,16 +1717,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C79">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D79">
-        <v>459.6666666666667</v>
+        <v>300.2222222222222</v>
       </c>
       <c r="E79">
-        <v>459.6666666666667</v>
+        <v>300.2222222222222</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1734,16 +1734,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C80">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D80">
-        <v>465.6363636363636</v>
+        <v>304.1212121212121</v>
       </c>
       <c r="E80">
-        <v>465.6363636363636</v>
+        <v>304.1212121212121</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1751,16 +1751,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C81">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D81">
-        <v>471.6060606060606</v>
+        <v>308.020202020202</v>
       </c>
       <c r="E81">
-        <v>471.6060606060606</v>
+        <v>308.020202020202</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1768,16 +1768,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C82">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D82">
-        <v>477.5757575757576</v>
+        <v>311.9191919191919</v>
       </c>
       <c r="E82">
-        <v>477.5757575757576</v>
+        <v>311.9191919191919</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1785,16 +1785,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C83">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D83">
-        <v>483.5454545454546</v>
+        <v>315.8181818181818</v>
       </c>
       <c r="E83">
-        <v>483.5454545454546</v>
+        <v>315.8181818181818</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1802,16 +1802,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C84">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D84">
-        <v>489.5151515151515</v>
+        <v>319.7171717171717</v>
       </c>
       <c r="E84">
-        <v>489.5151515151515</v>
+        <v>319.7171717171717</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1819,16 +1819,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C85">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D85">
-        <v>495.4848484848485</v>
+        <v>323.6161616161616</v>
       </c>
       <c r="E85">
-        <v>495.4848484848485</v>
+        <v>323.6161616161616</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1836,16 +1836,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C86">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D86">
-        <v>501.4545454545454</v>
+        <v>327.5151515151515</v>
       </c>
       <c r="E86">
-        <v>501.4545454545454</v>
+        <v>327.5151515151515</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1853,16 +1853,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C87">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D87">
-        <v>507.4242424242424</v>
+        <v>331.4141414141414</v>
       </c>
       <c r="E87">
-        <v>507.4242424242424</v>
+        <v>331.4141414141414</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1870,16 +1870,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C88">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D88">
-        <v>513.3939393939394</v>
+        <v>335.3131313131313</v>
       </c>
       <c r="E88">
-        <v>513.3939393939394</v>
+        <v>335.3131313131313</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1887,16 +1887,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C89">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D89">
-        <v>519.3636363636364</v>
+        <v>339.2121212121212</v>
       </c>
       <c r="E89">
-        <v>519.3636363636364</v>
+        <v>339.2121212121212</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1904,16 +1904,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C90">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D90">
-        <v>525.3333333333334</v>
+        <v>343.1111111111111</v>
       </c>
       <c r="E90">
-        <v>525.3333333333334</v>
+        <v>343.1111111111111</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1921,16 +1921,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C91">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D91">
-        <v>531.3030303030303</v>
+        <v>347.010101010101</v>
       </c>
       <c r="E91">
-        <v>531.3030303030303</v>
+        <v>347.010101010101</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1938,16 +1938,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C92">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D92">
-        <v>537.2727272727273</v>
+        <v>350.9090909090909</v>
       </c>
       <c r="E92">
-        <v>537.2727272727273</v>
+        <v>350.9090909090909</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1955,16 +1955,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C93">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D93">
-        <v>543.2424242424242</v>
+        <v>354.8080808080808</v>
       </c>
       <c r="E93">
-        <v>543.2424242424242</v>
+        <v>354.8080808080808</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1972,16 +1972,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C94">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D94">
-        <v>549.2121212121212</v>
+        <v>358.7070707070707</v>
       </c>
       <c r="E94">
-        <v>549.2121212121212</v>
+        <v>358.7070707070707</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1989,16 +1989,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C95">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D95">
-        <v>555.1818181818181</v>
+        <v>362.6060606060606</v>
       </c>
       <c r="E95">
-        <v>555.1818181818181</v>
+        <v>362.6060606060606</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2006,16 +2006,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C96">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D96">
-        <v>561.1515151515151</v>
+        <v>366.5050505050505</v>
       </c>
       <c r="E96">
-        <v>561.1515151515151</v>
+        <v>366.5050505050505</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2023,16 +2023,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C97">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D97">
-        <v>567.1212121212121</v>
+        <v>370.4040404040404</v>
       </c>
       <c r="E97">
-        <v>567.1212121212121</v>
+        <v>370.4040404040404</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2040,16 +2040,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C98">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D98">
-        <v>573.0909090909091</v>
+        <v>374.3030303030303</v>
       </c>
       <c r="E98">
-        <v>573.0909090909091</v>
+        <v>374.3030303030303</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2057,16 +2057,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C99">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D99">
-        <v>579.0606060606061</v>
+        <v>378.2020202020202</v>
       </c>
       <c r="E99">
-        <v>579.0606060606061</v>
+        <v>378.2020202020202</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2074,16 +2074,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C100">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D100">
-        <v>585.030303030303</v>
+        <v>382.1010101010101</v>
       </c>
       <c r="E100">
-        <v>585.030303030303</v>
+        <v>382.1010101010101</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2091,16 +2091,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>591</v>
+        <v>154</v>
       </c>
       <c r="C101">
-        <v>8640</v>
+        <v>1781.609985351562</v>
       </c>
       <c r="D101">
-        <v>591</v>
+        <v>386</v>
       </c>
       <c r="E101">
-        <v>591</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/FPH-LinearxNLinear.xlsx
+++ b/FPH-LinearxNLinear.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="FPHxFPHLBATALHA     " sheetId="1" r:id="rId1"/>
+    <sheet name="FPHxFPHLFURNAS      " sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -408,10 +408,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C2">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C3">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D3">
-        <v>3.898989898989899</v>
+        <v>60.60606060606061</v>
       </c>
       <c r="E3">
-        <v>3.898989898989899</v>
+        <v>60.60606060606061</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C4">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D4">
-        <v>7.797979797979798</v>
+        <v>121.2121212121212</v>
       </c>
       <c r="E4">
-        <v>7.797979797979798</v>
+        <v>121.2121212121212</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C5">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D5">
-        <v>11.6969696969697</v>
+        <v>181.8181818181818</v>
       </c>
       <c r="E5">
-        <v>11.6969696969697</v>
+        <v>181.8181818181818</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C6">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D6">
-        <v>15.5959595959596</v>
+        <v>242.4242424242424</v>
       </c>
       <c r="E6">
-        <v>15.5959595959596</v>
+        <v>242.4242424242424</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C7">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D7">
-        <v>19.49494949494949</v>
+        <v>303.0303030303031</v>
       </c>
       <c r="E7">
-        <v>19.49494949494949</v>
+        <v>303.0303030303031</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C8">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D8">
-        <v>23.39393939393939</v>
+        <v>363.6363636363636</v>
       </c>
       <c r="E8">
-        <v>23.39393939393939</v>
+        <v>363.6363636363636</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C9">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D9">
-        <v>27.29292929292929</v>
+        <v>424.2424242424242</v>
       </c>
       <c r="E9">
-        <v>27.29292929292929</v>
+        <v>424.2424242424242</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C10">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D10">
-        <v>31.19191919191919</v>
+        <v>484.8484848484849</v>
       </c>
       <c r="E10">
-        <v>31.19191919191919</v>
+        <v>484.8484848484849</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C11">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D11">
-        <v>35.09090909090909</v>
+        <v>545.4545454545455</v>
       </c>
       <c r="E11">
-        <v>35.09090909090909</v>
+        <v>545.4545454545455</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C12">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D12">
-        <v>38.98989898989899</v>
+        <v>606.0606060606061</v>
       </c>
       <c r="E12">
-        <v>38.98989898989899</v>
+        <v>606.0606060606061</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C13">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D13">
-        <v>42.88888888888889</v>
+        <v>666.6666666666667</v>
       </c>
       <c r="E13">
-        <v>42.88888888888889</v>
+        <v>666.6666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C14">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D14">
-        <v>46.78787878787878</v>
+        <v>727.2727272727273</v>
       </c>
       <c r="E14">
-        <v>46.78787878787878</v>
+        <v>727.2727272727273</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C15">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D15">
-        <v>50.68686868686869</v>
+        <v>787.8787878787879</v>
       </c>
       <c r="E15">
-        <v>50.68686868686869</v>
+        <v>787.8787878787879</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C16">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D16">
-        <v>54.58585858585858</v>
+        <v>848.4848484848485</v>
       </c>
       <c r="E16">
-        <v>54.58585858585858</v>
+        <v>848.4848484848485</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C17">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D17">
-        <v>58.48484848484848</v>
+        <v>909.0909090909091</v>
       </c>
       <c r="E17">
-        <v>58.48484848484848</v>
+        <v>909.0909090909091</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C18">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D18">
-        <v>62.38383838383838</v>
+        <v>969.6969696969697</v>
       </c>
       <c r="E18">
-        <v>62.38383838383838</v>
+        <v>969.6969696969697</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C19">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D19">
-        <v>66.28282828282828</v>
+        <v>1030.30303030303</v>
       </c>
       <c r="E19">
-        <v>66.28282828282828</v>
+        <v>1030.30303030303</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C20">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D20">
-        <v>70.18181818181817</v>
+        <v>1090.909090909091</v>
       </c>
       <c r="E20">
-        <v>70.18181818181817</v>
+        <v>1090.909090909091</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -731,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C21">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D21">
-        <v>74.08080808080808</v>
+        <v>1151.515151515152</v>
       </c>
       <c r="E21">
-        <v>74.08080808080808</v>
+        <v>1151.515151515152</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -748,16 +748,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C22">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D22">
-        <v>77.97979797979798</v>
+        <v>1212.121212121212</v>
       </c>
       <c r="E22">
-        <v>77.97979797979798</v>
+        <v>1212.121212121212</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -765,16 +765,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C23">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D23">
-        <v>81.87878787878788</v>
+        <v>1272.727272727273</v>
       </c>
       <c r="E23">
-        <v>81.87878787878788</v>
+        <v>1272.727272727273</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -782,16 +782,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C24">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D24">
-        <v>85.77777777777777</v>
+        <v>1333.333333333333</v>
       </c>
       <c r="E24">
-        <v>85.77777777777777</v>
+        <v>1333.333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -799,16 +799,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C25">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D25">
-        <v>89.67676767676767</v>
+        <v>1393.939393939394</v>
       </c>
       <c r="E25">
-        <v>89.67676767676767</v>
+        <v>1393.939393939394</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -816,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C26">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D26">
-        <v>93.57575757575756</v>
+        <v>1454.545454545455</v>
       </c>
       <c r="E26">
-        <v>93.57575757575756</v>
+        <v>1454.545454545455</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,16 +833,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C27">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D27">
-        <v>97.47474747474747</v>
+        <v>1515.151515151515</v>
       </c>
       <c r="E27">
-        <v>97.47474747474747</v>
+        <v>1515.151515151515</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -850,16 +850,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C28">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D28">
-        <v>101.3737373737374</v>
+        <v>1575.757575757576</v>
       </c>
       <c r="E28">
-        <v>101.3737373737374</v>
+        <v>1575.757575757576</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -867,16 +867,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C29">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D29">
-        <v>105.2727272727273</v>
+        <v>1636.363636363636</v>
       </c>
       <c r="E29">
-        <v>105.2727272727273</v>
+        <v>1636.363636363636</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -884,16 +884,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C30">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D30">
-        <v>109.1717171717172</v>
+        <v>1696.969696969697</v>
       </c>
       <c r="E30">
-        <v>109.1717171717172</v>
+        <v>1696.969696969697</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -901,16 +901,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C31">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D31">
-        <v>113.0707070707071</v>
+        <v>1757.575757575758</v>
       </c>
       <c r="E31">
-        <v>113.0707070707071</v>
+        <v>1757.575757575758</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -918,16 +918,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C32">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D32">
-        <v>116.969696969697</v>
+        <v>1818.181818181818</v>
       </c>
       <c r="E32">
-        <v>116.969696969697</v>
+        <v>1818.181818181818</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -935,16 +935,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C33">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D33">
-        <v>120.8686868686869</v>
+        <v>1878.787878787879</v>
       </c>
       <c r="E33">
-        <v>120.8686868686869</v>
+        <v>1878.787878787879</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,16 +952,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C34">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D34">
-        <v>124.7676767676768</v>
+        <v>1939.393939393939</v>
       </c>
       <c r="E34">
-        <v>124.7676767676768</v>
+        <v>1939.393939393939</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -969,16 +969,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C35">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D35">
-        <v>128.6666666666667</v>
+        <v>2000</v>
       </c>
       <c r="E35">
-        <v>128.6666666666667</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -986,16 +986,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C36">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D36">
-        <v>132.5656565656566</v>
+        <v>2060.606060606061</v>
       </c>
       <c r="E36">
-        <v>132.5656565656566</v>
+        <v>2060.606060606061</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1003,16 +1003,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C37">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D37">
-        <v>136.4646464646464</v>
+        <v>2121.212121212121</v>
       </c>
       <c r="E37">
-        <v>136.4646464646464</v>
+        <v>2121.212121212121</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,16 +1020,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C38">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D38">
-        <v>140.3636363636363</v>
+        <v>2181.818181818182</v>
       </c>
       <c r="E38">
-        <v>140.3636363636363</v>
+        <v>2181.818181818182</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1037,16 +1037,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C39">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D39">
-        <v>144.2626262626262</v>
+        <v>2242.424242424242</v>
       </c>
       <c r="E39">
-        <v>144.2626262626262</v>
+        <v>2242.424242424242</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1054,16 +1054,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C40">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D40">
-        <v>148.1616161616162</v>
+        <v>2303.030303030303</v>
       </c>
       <c r="E40">
-        <v>148.1616161616162</v>
+        <v>2303.030303030303</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1071,16 +1071,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C41">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D41">
-        <v>152.0606060606061</v>
+        <v>2363.636363636364</v>
       </c>
       <c r="E41">
-        <v>152.0606060606061</v>
+        <v>2363.636363636364</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,16 +1088,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C42">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D42">
-        <v>155.959595959596</v>
+        <v>2424.242424242424</v>
       </c>
       <c r="E42">
-        <v>155.959595959596</v>
+        <v>2424.242424242424</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1105,16 +1105,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C43">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D43">
-        <v>159.8585858585859</v>
+        <v>2484.848484848485</v>
       </c>
       <c r="E43">
-        <v>159.8585858585859</v>
+        <v>2484.848484848485</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1122,16 +1122,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C44">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D44">
-        <v>163.7575757575758</v>
+        <v>2545.454545454545</v>
       </c>
       <c r="E44">
-        <v>163.7575757575758</v>
+        <v>2545.454545454545</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1139,16 +1139,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C45">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D45">
-        <v>167.6565656565656</v>
+        <v>2606.060606060606</v>
       </c>
       <c r="E45">
-        <v>167.6565656565656</v>
+        <v>2606.060606060606</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,16 +1156,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C46">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D46">
-        <v>171.5555555555555</v>
+        <v>2666.666666666667</v>
       </c>
       <c r="E46">
-        <v>171.5555555555555</v>
+        <v>2666.666666666667</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1173,16 +1173,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C47">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D47">
-        <v>175.4545454545454</v>
+        <v>2727.272727272727</v>
       </c>
       <c r="E47">
-        <v>175.4545454545454</v>
+        <v>2727.272727272727</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1190,16 +1190,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C48">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D48">
-        <v>179.3535353535353</v>
+        <v>2787.878787878788</v>
       </c>
       <c r="E48">
-        <v>179.3535353535353</v>
+        <v>2787.878787878788</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1207,16 +1207,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C49">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D49">
-        <v>183.2525252525252</v>
+        <v>2848.484848484848</v>
       </c>
       <c r="E49">
-        <v>183.2525252525252</v>
+        <v>2848.484848484848</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,16 +1224,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C50">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D50">
-        <v>187.1515151515151</v>
+        <v>2909.090909090909</v>
       </c>
       <c r="E50">
-        <v>187.1515151515151</v>
+        <v>2909.090909090909</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1241,16 +1241,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C51">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D51">
-        <v>191.0505050505051</v>
+        <v>2969.69696969697</v>
       </c>
       <c r="E51">
-        <v>191.0505050505051</v>
+        <v>2969.69696969697</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1258,16 +1258,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C52">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D52">
-        <v>194.9494949494949</v>
+        <v>3030.30303030303</v>
       </c>
       <c r="E52">
-        <v>194.9494949494949</v>
+        <v>3030.30303030303</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1275,16 +1275,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C53">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D53">
-        <v>198.8484848484848</v>
+        <v>3090.909090909091</v>
       </c>
       <c r="E53">
-        <v>198.8484848484848</v>
+        <v>3090.909090909091</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1292,16 +1292,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C54">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D54">
-        <v>202.7474747474747</v>
+        <v>3151.515151515152</v>
       </c>
       <c r="E54">
-        <v>202.7474747474747</v>
+        <v>3151.515151515152</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1309,16 +1309,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C55">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D55">
-        <v>206.6464646464646</v>
+        <v>3212.121212121212</v>
       </c>
       <c r="E55">
-        <v>206.6464646464646</v>
+        <v>3212.121212121212</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1326,16 +1326,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C56">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D56">
-        <v>210.5454545454545</v>
+        <v>3272.727272727273</v>
       </c>
       <c r="E56">
-        <v>210.5454545454545</v>
+        <v>3272.727272727273</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1343,16 +1343,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C57">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D57">
-        <v>214.4444444444444</v>
+        <v>3333.333333333333</v>
       </c>
       <c r="E57">
-        <v>214.4444444444444</v>
+        <v>3333.333333333333</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1360,16 +1360,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C58">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D58">
-        <v>218.3434343434343</v>
+        <v>3393.939393939394</v>
       </c>
       <c r="E58">
-        <v>218.3434343434343</v>
+        <v>3393.939393939394</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1377,16 +1377,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C59">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D59">
-        <v>222.2424242424242</v>
+        <v>3454.545454545455</v>
       </c>
       <c r="E59">
-        <v>222.2424242424242</v>
+        <v>3454.545454545455</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1394,16 +1394,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C60">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D60">
-        <v>226.1414141414141</v>
+        <v>3515.151515151515</v>
       </c>
       <c r="E60">
-        <v>226.1414141414141</v>
+        <v>3515.151515151515</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1411,16 +1411,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C61">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D61">
-        <v>230.040404040404</v>
+        <v>3575.757575757576</v>
       </c>
       <c r="E61">
-        <v>230.040404040404</v>
+        <v>3575.757575757576</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1428,16 +1428,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C62">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D62">
-        <v>233.9393939393939</v>
+        <v>3636.363636363636</v>
       </c>
       <c r="E62">
-        <v>233.9393939393939</v>
+        <v>3636.363636363636</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1445,16 +1445,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C63">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D63">
-        <v>237.8383838383838</v>
+        <v>3696.969696969697</v>
       </c>
       <c r="E63">
-        <v>237.8383838383838</v>
+        <v>3696.969696969697</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1462,16 +1462,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C64">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D64">
-        <v>241.7373737373737</v>
+        <v>3757.575757575758</v>
       </c>
       <c r="E64">
-        <v>241.7373737373737</v>
+        <v>3757.575757575758</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1479,16 +1479,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C65">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D65">
-        <v>245.6363636363636</v>
+        <v>3818.181818181818</v>
       </c>
       <c r="E65">
-        <v>245.6363636363636</v>
+        <v>3818.181818181818</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1496,16 +1496,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C66">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D66">
-        <v>249.5353535353535</v>
+        <v>3878.787878787879</v>
       </c>
       <c r="E66">
-        <v>249.5353535353535</v>
+        <v>3878.787878787879</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1513,16 +1513,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C67">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D67">
-        <v>253.4343434343434</v>
+        <v>3939.393939393939</v>
       </c>
       <c r="E67">
-        <v>253.4343434343434</v>
+        <v>3939.393939393939</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1530,16 +1530,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C68">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D68">
-        <v>257.3333333333333</v>
+        <v>4000</v>
       </c>
       <c r="E68">
-        <v>257.3333333333333</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1547,16 +1547,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C69">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D69">
-        <v>261.2323232323232</v>
+        <v>4060.606060606061</v>
       </c>
       <c r="E69">
-        <v>261.2323232323232</v>
+        <v>4060.606060606061</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1564,16 +1564,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C70">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D70">
-        <v>265.1313131313131</v>
+        <v>4121.212121212121</v>
       </c>
       <c r="E70">
-        <v>265.1313131313131</v>
+        <v>4121.212121212121</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1581,16 +1581,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C71">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D71">
-        <v>269.030303030303</v>
+        <v>4181.818181818182</v>
       </c>
       <c r="E71">
-        <v>269.030303030303</v>
+        <v>4181.818181818182</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1598,16 +1598,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C72">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D72">
-        <v>272.9292929292929</v>
+        <v>4242.424242424243</v>
       </c>
       <c r="E72">
-        <v>272.9292929292929</v>
+        <v>4242.424242424243</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1615,16 +1615,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C73">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D73">
-        <v>276.8282828282828</v>
+        <v>4303.030303030303</v>
       </c>
       <c r="E73">
-        <v>276.8282828282828</v>
+        <v>4303.030303030303</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1632,16 +1632,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C74">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D74">
-        <v>280.7272727272727</v>
+        <v>4363.636363636364</v>
       </c>
       <c r="E74">
-        <v>280.7272727272727</v>
+        <v>4363.636363636364</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1649,16 +1649,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C75">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D75">
-        <v>284.6262626262626</v>
+        <v>4424.242424242424</v>
       </c>
       <c r="E75">
-        <v>284.6262626262626</v>
+        <v>4424.242424242424</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1666,16 +1666,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C76">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D76">
-        <v>288.5252525252525</v>
+        <v>4484.848484848485</v>
       </c>
       <c r="E76">
-        <v>288.5252525252525</v>
+        <v>4484.848484848485</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1683,16 +1683,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C77">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D77">
-        <v>292.4242424242424</v>
+        <v>4545.454545454546</v>
       </c>
       <c r="E77">
-        <v>292.4242424242424</v>
+        <v>4545.454545454546</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1700,16 +1700,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C78">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D78">
-        <v>296.3232323232323</v>
+        <v>4606.060606060606</v>
       </c>
       <c r="E78">
-        <v>296.3232323232323</v>
+        <v>4606.060606060606</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1717,16 +1717,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C79">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D79">
-        <v>300.2222222222222</v>
+        <v>4666.666666666667</v>
       </c>
       <c r="E79">
-        <v>300.2222222222222</v>
+        <v>4666.666666666667</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1734,16 +1734,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C80">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D80">
-        <v>304.1212121212121</v>
+        <v>4727.272727272728</v>
       </c>
       <c r="E80">
-        <v>304.1212121212121</v>
+        <v>4727.272727272728</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1751,16 +1751,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C81">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D81">
-        <v>308.020202020202</v>
+        <v>4787.878787878788</v>
       </c>
       <c r="E81">
-        <v>308.020202020202</v>
+        <v>4787.878787878788</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1768,16 +1768,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C82">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D82">
-        <v>311.9191919191919</v>
+        <v>4848.484848484849</v>
       </c>
       <c r="E82">
-        <v>311.9191919191919</v>
+        <v>4848.484848484849</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1785,16 +1785,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C83">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D83">
-        <v>315.8181818181818</v>
+        <v>4909.090909090909</v>
       </c>
       <c r="E83">
-        <v>315.8181818181818</v>
+        <v>4909.090909090909</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1802,16 +1802,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C84">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D84">
-        <v>319.7171717171717</v>
+        <v>4969.69696969697</v>
       </c>
       <c r="E84">
-        <v>319.7171717171717</v>
+        <v>4969.69696969697</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1819,16 +1819,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C85">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D85">
-        <v>323.6161616161616</v>
+        <v>5030.303030303031</v>
       </c>
       <c r="E85">
-        <v>323.6161616161616</v>
+        <v>5030.303030303031</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1836,16 +1836,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C86">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D86">
-        <v>327.5151515151515</v>
+        <v>5090.909090909091</v>
       </c>
       <c r="E86">
-        <v>327.5151515151515</v>
+        <v>5090.909090909091</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1853,16 +1853,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C87">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D87">
-        <v>331.4141414141414</v>
+        <v>5151.515151515152</v>
       </c>
       <c r="E87">
-        <v>331.4141414141414</v>
+        <v>5151.515151515152</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1870,16 +1870,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C88">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D88">
-        <v>335.3131313131313</v>
+        <v>5212.121212121212</v>
       </c>
       <c r="E88">
-        <v>335.3131313131313</v>
+        <v>5212.121212121212</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1887,16 +1887,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C89">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D89">
-        <v>339.2121212121212</v>
+        <v>5272.727272727273</v>
       </c>
       <c r="E89">
-        <v>339.2121212121212</v>
+        <v>5272.727272727273</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1904,16 +1904,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C90">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D90">
-        <v>343.1111111111111</v>
+        <v>5333.333333333334</v>
       </c>
       <c r="E90">
-        <v>343.1111111111111</v>
+        <v>5333.333333333334</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1921,16 +1921,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C91">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D91">
-        <v>347.010101010101</v>
+        <v>5393.939393939394</v>
       </c>
       <c r="E91">
-        <v>347.010101010101</v>
+        <v>5393.939393939394</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1938,16 +1938,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C92">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D92">
-        <v>350.9090909090909</v>
+        <v>5454.545454545455</v>
       </c>
       <c r="E92">
-        <v>350.9090909090909</v>
+        <v>5454.545454545455</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1955,16 +1955,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C93">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D93">
-        <v>354.8080808080808</v>
+        <v>5515.151515151515</v>
       </c>
       <c r="E93">
-        <v>354.8080808080808</v>
+        <v>5515.151515151515</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1972,16 +1972,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C94">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D94">
-        <v>358.7070707070707</v>
+        <v>5575.757575757576</v>
       </c>
       <c r="E94">
-        <v>358.7070707070707</v>
+        <v>5575.757575757576</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1989,16 +1989,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C95">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D95">
-        <v>362.6060606060606</v>
+        <v>5636.363636363637</v>
       </c>
       <c r="E95">
-        <v>362.6060606060606</v>
+        <v>5636.363636363637</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2006,16 +2006,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C96">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D96">
-        <v>366.5050505050505</v>
+        <v>5696.969696969697</v>
       </c>
       <c r="E96">
-        <v>366.5050505050505</v>
+        <v>5696.969696969697</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2023,16 +2023,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C97">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D97">
-        <v>370.4040404040404</v>
+        <v>5757.575757575758</v>
       </c>
       <c r="E97">
-        <v>370.4040404040404</v>
+        <v>5757.575757575758</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2040,16 +2040,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C98">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D98">
-        <v>374.3030303030303</v>
+        <v>5818.181818181818</v>
       </c>
       <c r="E98">
-        <v>374.3030303030303</v>
+        <v>5818.181818181818</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2057,16 +2057,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C99">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D99">
-        <v>378.2020202020202</v>
+        <v>5878.787878787879</v>
       </c>
       <c r="E99">
-        <v>378.2020202020202</v>
+        <v>5878.787878787879</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2074,16 +2074,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C100">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D100">
-        <v>382.1010101010101</v>
+        <v>5939.39393939394</v>
       </c>
       <c r="E100">
-        <v>382.1010101010101</v>
+        <v>5939.39393939394</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2091,16 +2091,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>154</v>
+        <v>1506</v>
       </c>
       <c r="C101">
-        <v>1781.609985351562</v>
+        <v>22950</v>
       </c>
       <c r="D101">
-        <v>386</v>
+        <v>6000</v>
       </c>
       <c r="E101">
-        <v>386</v>
+        <v>6000</v>
       </c>
     </row>
   </sheetData>
